--- a/Desktop/Amir/Report/Kecai/25 Oktober 2024/251024.xlsx
+++ b/Desktop/Amir/Report/Kecai/25 Oktober 2024/251024.xlsx
@@ -5,19 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Amir\Report\Kecai\251024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Amir\Report\Kecai\25 Oktober 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF57719C-FDA7-4332-9A30-B6825B196604}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DB51F0-847B-4C10-AA9D-F02332F44B79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{38249C9A-01A6-4AF8-A1A8-1F534CECDBB5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{38249C9A-01A6-4AF8-A1A8-1F534CECDBB5}"/>
   </bookViews>
   <sheets>
     <sheet name="2024100028" sheetId="1" r:id="rId1"/>
     <sheet name="2024100031" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="2024100024" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="OLE_LINK1" localSheetId="2">'2024100024'!$A$1</definedName>
     <definedName name="OLE_LINK1" localSheetId="0">'2024100028'!$A$1</definedName>
     <definedName name="OLE_LINK1" localSheetId="1">'2024100031'!$A$1</definedName>
   </definedNames>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="109">
   <si>
     <t>NO. SAMPEL</t>
   </si>
@@ -873,6 +875,9 @@
   <si>
     <t>25 OKTOBER 2024</t>
   </si>
+  <si>
+    <t>PERMIT           AMIR         NASOHA</t>
+  </si>
 </sst>
 </file>
 
@@ -1314,7 +1319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1588,6 +1593,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1728,68 +1757,80 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1812,11 +1853,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1866,15 +1910,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1932,15 +1982,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1952,18 +1993,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3984,6 +4013,941 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>355982</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1274865</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Text Box 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1E5DB83-6471-40B1-A70F-EDFC954E9A72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5213732" y="442072"/>
+          <a:ext cx="918883" cy="2926976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0" upright="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1100">
+            <a:effectLst/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1100">
+            <a:effectLst/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Lekatkan</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1100">
+            <a:effectLst/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>cetakan</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1100">
+            <a:effectLst/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>masa pengecaian</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1100">
+            <a:effectLst/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>di sini</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1100">
+            <a:effectLst/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> atau rujuk lampiran  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1100">
+            <a:effectLst/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>50457</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>34187</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>178490</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>156820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Graphic 2" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B32B01B-26D4-42C1-8E33-DC09BC85BB77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="50457" y="881584"/>
+          <a:ext cx="128033" cy="122633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>54031</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>182064</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>148489</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Graphic 3" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B90CFB96-FA42-4293-ACE6-59B797BED5C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1709410" y="873253"/>
+          <a:ext cx="128033" cy="122633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>489512</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6631</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>158633</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Graphic 4" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3501F6D8-0112-4531-8C99-BA5404F1CBDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2908862" y="2274375"/>
+          <a:ext cx="126719" cy="122633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15802</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>40188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>143835</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>162821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Graphic 5" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C53BFF5-C5ED-45FA-9F2F-FBFB6AF1FB5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1671181" y="2648067"/>
+          <a:ext cx="128033" cy="122633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>107156</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>125016</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="660797" cy="196452"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EDB8759-F774-43A4-824A-A6EF202B9C04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1955006" y="2363391"/>
+          <a:ext cx="660797" cy="196452"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>9.37</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>369094</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>125015</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CE484BB-CA28-4426-918A-98D02AC6B380}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4055269" y="2363390"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>10553</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>30622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>138586</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>153255</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Graphic 8" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA0D7962-2193-4227-A4C5-93710157C685}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1667903" y="2811922"/>
+          <a:ext cx="128033" cy="122633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>448703</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>34193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5236</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>156826</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Graphic 9" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57EBDBAC-1B95-4A7D-804C-77AEC4F7F067}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2296553" y="3177443"/>
+          <a:ext cx="128033" cy="122633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>244078</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="583405" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E5C00F5-2703-467C-B344-D6865736E266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2663428" y="3443287"/>
+          <a:ext cx="583405" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>36.2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>494110</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>41672</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="512153" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61A8C129-592F-4C3F-9781-ABB37CCB7C75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2913460" y="4489847"/>
+          <a:ext cx="512153" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>60</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>43891</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>34194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171924</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>156827</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Graphic 12" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBD62C66-181D-4C40-AF20-A8037F254AF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43891" y="4949094"/>
+          <a:ext cx="128033" cy="122633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1408510</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="512153" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF5A54FD-EB88-4B8B-BABD-5641B616C96A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1646635" y="4857750"/>
+          <a:ext cx="512153" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>25</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47463</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>31812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>175496</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>154445</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Graphic 14" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C93E6C3-649E-49B6-B84E-91A06F6F9935}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3076413" y="5346762"/>
+          <a:ext cx="128033" cy="122633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4283,8 +5247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318A5001-3373-4BA5-B707-AF234176FF51}">
   <dimension ref="A1:T502"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A49" zoomScale="145" zoomScaleNormal="82" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51:K51"/>
+    <sheetView view="pageLayout" zoomScale="145" zoomScaleNormal="82" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4303,45 +5267,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="101">
+      <c r="B1" s="111"/>
+      <c r="C1" s="109">
         <v>2024100028</v>
       </c>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="103"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="192" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
       <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:10" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="204" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="192"/>
-      <c r="C3" s="181" t="s">
+      <c r="B3" s="205"/>
+      <c r="C3" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="181"/>
-      <c r="E3" s="18"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
@@ -4358,15 +5322,15 @@
       <c r="C4" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="137" t="s">
+      <c r="D4" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="138"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="146"/>
     </row>
     <row r="5" spans="1:10" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
@@ -4378,15 +5342,15 @@
       <c r="C5" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="137" t="s">
+      <c r="D5" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="138"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="146"/>
     </row>
     <row r="6" spans="1:10" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
@@ -4398,15 +5362,15 @@
       <c r="C6" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="137" t="s">
+      <c r="D6" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="138"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="146"/>
     </row>
     <row r="7" spans="1:10" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
@@ -4418,15 +5382,15 @@
       <c r="C7" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="145" t="s">
+      <c r="D7" s="153" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="146"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="1:10" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
@@ -4438,15 +5402,15 @@
       <c r="C8" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="173" t="s">
+      <c r="D8" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="173"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="173"/>
-      <c r="J8" s="174"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="186"/>
     </row>
     <row r="9" spans="1:10" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55" t="s">
@@ -4458,15 +5422,15 @@
       <c r="C9" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="145" t="s">
+      <c r="D9" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="146"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="154"/>
     </row>
     <row r="10" spans="1:10" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55" t="s">
@@ -4478,19 +5442,19 @@
       <c r="C10" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="198" t="s">
+      <c r="D10" s="213" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="198"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="199"/>
+      <c r="E10" s="213"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="213"/>
+      <c r="H10" s="213"/>
+      <c r="I10" s="213"/>
+      <c r="J10" s="214"/>
     </row>
     <row r="11" spans="1:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="190"/>
-      <c r="B11" s="190"/>
+      <c r="A11" s="203"/>
+      <c r="B11" s="203"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -4500,10 +5464,10 @@
       <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="197" t="s">
+      <c r="A12" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="197"/>
+      <c r="B12" s="208"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
@@ -4513,185 +5477,185 @@
       <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:10" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="180" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="196"/>
-      <c r="C13" s="151" t="s">
+      <c r="B13" s="181"/>
+      <c r="C13" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="152"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
       <c r="J13" s="24"/>
     </row>
     <row r="14" spans="1:10" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="195" t="s">
+      <c r="A14" s="180" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="196"/>
-      <c r="C14" s="151" t="s">
+      <c r="B14" s="181"/>
+      <c r="C14" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="153"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="159"/>
     </row>
     <row r="15" spans="1:10" s="23" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="177" t="s">
+      <c r="A15" s="176" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="178"/>
-      <c r="C15" s="168" t="s">
+      <c r="B15" s="177"/>
+      <c r="C15" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="169"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="175"/>
       <c r="J15" s="53"/>
     </row>
     <row r="16" spans="1:10" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="195" t="s">
+      <c r="A16" s="180" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="196"/>
-      <c r="C16" s="168" t="s">
+      <c r="B16" s="181"/>
+      <c r="C16" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="175"/>
       <c r="J16" s="52"/>
     </row>
     <row r="17" spans="1:11" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="193" t="s">
+      <c r="A17" s="206" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="194"/>
-      <c r="C17" s="175" t="s">
+      <c r="B17" s="207"/>
+      <c r="C17" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="176"/>
-      <c r="E17" s="176"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="176"/>
-      <c r="I17" s="176"/>
+      <c r="D17" s="188"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="188"/>
       <c r="J17" s="49"/>
     </row>
     <row r="18" spans="1:11" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="182" t="s">
+      <c r="A18" s="195" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="138"/>
-      <c r="C18" s="135" t="s">
+      <c r="B18" s="146"/>
+      <c r="C18" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="136"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="144"/>
       <c r="J18" s="49"/>
     </row>
     <row r="19" spans="1:11" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="182" t="s">
+      <c r="A19" s="195" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="138"/>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="146"/>
+      <c r="C19" s="143" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="136"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="136"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
       <c r="J19" s="48"/>
     </row>
     <row r="20" spans="1:11" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="131"/>
-      <c r="B20" s="132"/>
-      <c r="C20" s="135" t="s">
+      <c r="A20" s="139"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
       <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="164"/>
-      <c r="B21" s="165"/>
-      <c r="C21" s="186" t="s">
+      <c r="A21" s="170"/>
+      <c r="B21" s="171"/>
+      <c r="C21" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="187"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
-      <c r="H21" s="187"/>
-      <c r="I21" s="187"/>
+      <c r="D21" s="200"/>
+      <c r="E21" s="200"/>
+      <c r="F21" s="200"/>
+      <c r="G21" s="200"/>
+      <c r="H21" s="200"/>
+      <c r="I21" s="200"/>
       <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:11" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="131"/>
-      <c r="B22" s="132"/>
-      <c r="C22" s="135" t="s">
+      <c r="A22" s="139"/>
+      <c r="B22" s="140"/>
+      <c r="C22" s="143" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="144"/>
+      <c r="I22" s="144"/>
       <c r="J22" s="48"/>
     </row>
     <row r="23" spans="1:11" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="131"/>
-      <c r="B23" s="132"/>
-      <c r="C23" s="135" t="s">
+      <c r="A23" s="139"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="132"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="144"/>
+      <c r="H23" s="144"/>
+      <c r="I23" s="144"/>
+      <c r="J23" s="140"/>
     </row>
     <row r="24" spans="1:11" s="23" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="147"/>
-      <c r="B24" s="148"/>
-      <c r="C24" s="188" t="s">
+      <c r="A24" s="155"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="189"/>
-      <c r="E24" s="189"/>
-      <c r="F24" s="189"/>
-      <c r="G24" s="189"/>
-      <c r="H24" s="189"/>
-      <c r="I24" s="189"/>
+      <c r="D24" s="202"/>
+      <c r="E24" s="202"/>
+      <c r="F24" s="202"/>
+      <c r="G24" s="202"/>
+      <c r="H24" s="202"/>
+      <c r="I24" s="202"/>
       <c r="J24" s="51"/>
     </row>
     <row r="25" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4719,383 +5683,383 @@
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:11" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="183" t="s">
+      <c r="A27" s="196" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="184"/>
-      <c r="C27" s="184"/>
-      <c r="D27" s="184"/>
-      <c r="E27" s="185"/>
+      <c r="B27" s="197"/>
+      <c r="C27" s="197"/>
+      <c r="D27" s="197"/>
+      <c r="E27" s="198"/>
       <c r="F27" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="166" t="s">
+      <c r="G27" s="172" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="166"/>
-      <c r="I27" s="166"/>
-      <c r="J27" s="166"/>
-      <c r="K27" s="167"/>
+      <c r="H27" s="172"/>
+      <c r="I27" s="172"/>
+      <c r="J27" s="172"/>
+      <c r="K27" s="173"/>
     </row>
     <row r="28" spans="1:11" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="156" t="s">
+      <c r="B28" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="157"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="163"/>
       <c r="F28" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="137" t="s">
+      <c r="G28" s="145" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="137"/>
-      <c r="I28" s="137"/>
-      <c r="J28" s="137"/>
-      <c r="K28" s="138"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="146"/>
     </row>
     <row r="29" spans="1:11" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="156" t="s">
+      <c r="B29" s="162" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="156"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="157"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="162"/>
+      <c r="E29" s="163"/>
       <c r="F29" s="38"/>
-      <c r="G29" s="137" t="s">
+      <c r="G29" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="H29" s="137"/>
-      <c r="I29" s="137"/>
-      <c r="J29" s="137"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="145"/>
       <c r="K29" s="31"/>
     </row>
     <row r="30" spans="1:11" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="46"/>
-      <c r="B30" s="139"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="140"/>
+      <c r="B30" s="147"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="148"/>
       <c r="F30" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="G30" s="139" t="s">
+      <c r="G30" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="H30" s="139"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="139"/>
-      <c r="K30" s="140"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="147"/>
+      <c r="K30" s="148"/>
     </row>
     <row r="31" spans="1:11" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="135"/>
-      <c r="B31" s="136"/>
-      <c r="C31" s="136"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="132"/>
+      <c r="A31" s="143"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="140"/>
       <c r="F31" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="141" t="s">
+      <c r="G31" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="141"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="141"/>
-      <c r="K31" s="142"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="150"/>
     </row>
     <row r="32" spans="1:11" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="135"/>
-      <c r="B32" s="136"/>
-      <c r="C32" s="136"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="132"/>
+      <c r="A32" s="143"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="140"/>
       <c r="F32" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="G32" s="149" t="s">
+      <c r="G32" s="178" t="s">
         <v>79</v>
       </c>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="150"/>
+      <c r="H32" s="178"/>
+      <c r="I32" s="178"/>
+      <c r="J32" s="178"/>
+      <c r="K32" s="179"/>
     </row>
     <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="170"/>
-      <c r="B33" s="171"/>
-      <c r="C33" s="171"/>
-      <c r="D33" s="171"/>
-      <c r="E33" s="172"/>
+      <c r="A33" s="182"/>
+      <c r="B33" s="183"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="184"/>
       <c r="F33" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="143" t="s">
+      <c r="G33" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="143"/>
-      <c r="I33" s="143"/>
-      <c r="J33" s="143"/>
-      <c r="K33" s="144"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="151"/>
+      <c r="K33" s="152"/>
     </row>
     <row r="34" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="170"/>
-      <c r="B34" s="171"/>
-      <c r="C34" s="171"/>
-      <c r="D34" s="171"/>
-      <c r="E34" s="172"/>
+      <c r="A34" s="182"/>
+      <c r="B34" s="183"/>
+      <c r="C34" s="183"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="184"/>
       <c r="F34" s="41"/>
-      <c r="G34" s="137" t="s">
+      <c r="G34" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="H34" s="137"/>
-      <c r="I34" s="137"/>
-      <c r="J34" s="137"/>
-      <c r="K34" s="138"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="145"/>
+      <c r="K34" s="146"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="207"/>
-      <c r="B35" s="208"/>
-      <c r="C35" s="208"/>
-      <c r="D35" s="208"/>
-      <c r="E35" s="209"/>
+      <c r="A35" s="222"/>
+      <c r="B35" s="223"/>
+      <c r="C35" s="223"/>
+      <c r="D35" s="223"/>
+      <c r="E35" s="224"/>
       <c r="F35" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="G35" s="218" t="s">
+      <c r="G35" s="190" t="s">
         <v>45</v>
       </c>
-      <c r="H35" s="218"/>
-      <c r="I35" s="218"/>
-      <c r="J35" s="218"/>
-      <c r="K35" s="219"/>
+      <c r="H35" s="190"/>
+      <c r="I35" s="190"/>
+      <c r="J35" s="190"/>
+      <c r="K35" s="191"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="210" t="s">
+      <c r="A36" s="225" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="211"/>
-      <c r="C36" s="211"/>
-      <c r="D36" s="211"/>
-      <c r="E36" s="212"/>
-      <c r="F36" s="217" t="s">
+      <c r="B36" s="226"/>
+      <c r="C36" s="226"/>
+      <c r="D36" s="226"/>
+      <c r="E36" s="227"/>
+      <c r="F36" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="166"/>
-      <c r="H36" s="166"/>
-      <c r="I36" s="166"/>
-      <c r="J36" s="166"/>
-      <c r="K36" s="167"/>
+      <c r="G36" s="172"/>
+      <c r="H36" s="172"/>
+      <c r="I36" s="172"/>
+      <c r="J36" s="172"/>
+      <c r="K36" s="173"/>
     </row>
     <row r="37" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="161" t="s">
+      <c r="A37" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="162"/>
-      <c r="C37" s="162"/>
-      <c r="D37" s="162"/>
-      <c r="E37" s="163"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
+      <c r="E37" s="169"/>
       <c r="F37" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="G37" s="187" t="s">
+      <c r="G37" s="200" t="s">
         <v>81</v>
       </c>
-      <c r="H37" s="187"/>
-      <c r="I37" s="187"/>
-      <c r="J37" s="187"/>
-      <c r="K37" s="216"/>
+      <c r="H37" s="200"/>
+      <c r="I37" s="200"/>
+      <c r="J37" s="200"/>
+      <c r="K37" s="231"/>
     </row>
     <row r="38" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="156" t="s">
+      <c r="B38" s="162" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="156"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="157"/>
+      <c r="C38" s="162"/>
+      <c r="D38" s="162"/>
+      <c r="E38" s="163"/>
       <c r="F38" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="G38" s="141" t="s">
+      <c r="G38" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="H38" s="141"/>
-      <c r="I38" s="141"/>
-      <c r="J38" s="141"/>
-      <c r="K38" s="142"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="150"/>
     </row>
     <row r="39" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="137" t="s">
+      <c r="B39" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="137"/>
-      <c r="D39" s="137"/>
-      <c r="E39" s="138"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="146"/>
       <c r="F39" s="42"/>
-      <c r="G39" s="141" t="s">
+      <c r="G39" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="H39" s="141"/>
-      <c r="I39" s="141"/>
-      <c r="J39" s="141"/>
-      <c r="K39" s="142"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="150"/>
     </row>
     <row r="40" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="158" t="s">
+      <c r="A40" s="164" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="159"/>
-      <c r="C40" s="159"/>
-      <c r="D40" s="159"/>
-      <c r="E40" s="160"/>
+      <c r="B40" s="165"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
+      <c r="E40" s="166"/>
       <c r="F40" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="G40" s="141" t="s">
+      <c r="G40" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="H40" s="141"/>
-      <c r="I40" s="141"/>
-      <c r="J40" s="141"/>
-      <c r="K40" s="142"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="150"/>
     </row>
     <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="158" t="s">
+      <c r="A41" s="164" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="159"/>
-      <c r="C41" s="159"/>
-      <c r="D41" s="159"/>
-      <c r="E41" s="160"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
+      <c r="E41" s="166"/>
       <c r="F41" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="G41" s="141" t="s">
+      <c r="G41" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="141"/>
-      <c r="I41" s="141"/>
-      <c r="J41" s="141"/>
-      <c r="K41" s="142"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="150"/>
     </row>
     <row r="42" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="158" t="s">
+      <c r="A42" s="164" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="159"/>
-      <c r="C42" s="159"/>
-      <c r="D42" s="159"/>
-      <c r="E42" s="160"/>
+      <c r="B42" s="165"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
+      <c r="E42" s="166"/>
       <c r="F42" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G42" s="149" t="s">
+      <c r="G42" s="178" t="s">
         <v>83</v>
       </c>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="150"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
+      <c r="J42" s="178"/>
+      <c r="K42" s="179"/>
     </row>
     <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="161" t="s">
+      <c r="A43" s="167" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="162"/>
-      <c r="C43" s="162"/>
-      <c r="D43" s="162"/>
-      <c r="E43" s="163"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
+      <c r="E43" s="169"/>
       <c r="F43" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="G43" s="137" t="s">
+      <c r="G43" s="145" t="s">
         <v>58</v>
       </c>
-      <c r="H43" s="137"/>
-      <c r="I43" s="137"/>
-      <c r="J43" s="137"/>
-      <c r="K43" s="138"/>
+      <c r="H43" s="145"/>
+      <c r="I43" s="145"/>
+      <c r="J43" s="145"/>
+      <c r="K43" s="146"/>
     </row>
     <row r="44" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="154" t="s">
+      <c r="B44" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="154"/>
-      <c r="D44" s="154"/>
-      <c r="E44" s="155"/>
+      <c r="C44" s="160"/>
+      <c r="D44" s="160"/>
+      <c r="E44" s="161"/>
       <c r="F44" s="41"/>
-      <c r="G44" s="137" t="s">
+      <c r="G44" s="145" t="s">
         <v>57</v>
       </c>
-      <c r="H44" s="137"/>
-      <c r="I44" s="137"/>
-      <c r="J44" s="137"/>
-      <c r="K44" s="138"/>
+      <c r="H44" s="145"/>
+      <c r="I44" s="145"/>
+      <c r="J44" s="145"/>
+      <c r="K44" s="146"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="133" t="s">
+      <c r="B45" s="141" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="133"/>
-      <c r="D45" s="133"/>
-      <c r="E45" s="134"/>
+      <c r="C45" s="141"/>
+      <c r="D45" s="141"/>
+      <c r="E45" s="142"/>
       <c r="F45" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="145" t="s">
+      <c r="G45" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="H45" s="145"/>
-      <c r="I45" s="145"/>
-      <c r="J45" s="145"/>
-      <c r="K45" s="146"/>
+      <c r="H45" s="153"/>
+      <c r="I45" s="153"/>
+      <c r="J45" s="153"/>
+      <c r="K45" s="154"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="201" t="s">
+      <c r="A46" s="216" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="202"/>
-      <c r="C46" s="202"/>
-      <c r="D46" s="202"/>
-      <c r="E46" s="202"/>
-      <c r="F46" s="202"/>
-      <c r="G46" s="202"/>
-      <c r="H46" s="202"/>
-      <c r="I46" s="202"/>
-      <c r="J46" s="202"/>
-      <c r="K46" s="203"/>
+      <c r="B46" s="217"/>
+      <c r="C46" s="217"/>
+      <c r="D46" s="217"/>
+      <c r="E46" s="217"/>
+      <c r="F46" s="217"/>
+      <c r="G46" s="217"/>
+      <c r="H46" s="217"/>
+      <c r="I46" s="217"/>
+      <c r="J46" s="217"/>
+      <c r="K46" s="218"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="204"/>
-      <c r="B47" s="205"/>
-      <c r="C47" s="205"/>
-      <c r="D47" s="205"/>
-      <c r="E47" s="205"/>
-      <c r="F47" s="205"/>
-      <c r="G47" s="205"/>
-      <c r="H47" s="205"/>
-      <c r="I47" s="205"/>
-      <c r="J47" s="205"/>
-      <c r="K47" s="206"/>
+      <c r="A47" s="219"/>
+      <c r="B47" s="220"/>
+      <c r="C47" s="220"/>
+      <c r="D47" s="220"/>
+      <c r="E47" s="220"/>
+      <c r="F47" s="220"/>
+      <c r="G47" s="220"/>
+      <c r="H47" s="220"/>
+      <c r="I47" s="220"/>
+      <c r="J47" s="220"/>
+      <c r="K47" s="221"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="64"/>
@@ -5111,38 +6075,38 @@
       <c r="K48" s="64"/>
     </row>
     <row r="49" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="110" t="s">
+      <c r="A49" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="111"/>
-      <c r="C49" s="111"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="111"/>
-      <c r="F49" s="111"/>
-      <c r="G49" s="111"/>
-      <c r="H49" s="111"/>
-      <c r="I49" s="111"/>
-      <c r="J49" s="111"/>
-      <c r="K49" s="112"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="119"/>
+      <c r="F49" s="119"/>
+      <c r="G49" s="119"/>
+      <c r="H49" s="119"/>
+      <c r="I49" s="119"/>
+      <c r="J49" s="119"/>
+      <c r="K49" s="120"/>
     </row>
     <row r="50" spans="1:20" s="65" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="110" t="s">
+      <c r="A50" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="111"/>
-      <c r="C50" s="111"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="112"/>
-      <c r="F50" s="213" t="s">
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="120"/>
+      <c r="F50" s="228" t="s">
         <v>11</v>
       </c>
-      <c r="G50" s="214"/>
-      <c r="H50" s="215"/>
-      <c r="I50" s="113" t="s">
+      <c r="G50" s="229"/>
+      <c r="H50" s="230"/>
+      <c r="I50" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="J50" s="114"/>
-      <c r="K50" s="115"/>
+      <c r="J50" s="122"/>
+      <c r="K50" s="123"/>
       <c r="L50"/>
       <c r="M50"/>
       <c r="N50"/>
@@ -5154,23 +6118,23 @@
       <c r="T50"/>
     </row>
     <row r="51" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="122" t="s">
+      <c r="A51" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="123"/>
-      <c r="C51" s="123"/>
-      <c r="D51" s="123"/>
-      <c r="E51" s="124"/>
-      <c r="F51" s="119">
+      <c r="B51" s="131"/>
+      <c r="C51" s="131"/>
+      <c r="D51" s="131"/>
+      <c r="E51" s="132"/>
+      <c r="F51" s="127">
         <v>6</v>
       </c>
-      <c r="G51" s="120"/>
-      <c r="H51" s="121"/>
-      <c r="I51" s="116">
+      <c r="G51" s="128"/>
+      <c r="H51" s="129"/>
+      <c r="I51" s="124">
         <v>8</v>
       </c>
-      <c r="J51" s="117"/>
-      <c r="K51" s="118"/>
+      <c r="J51" s="125"/>
+      <c r="K51" s="126"/>
       <c r="L51"/>
       <c r="M51"/>
       <c r="N51"/>
@@ -5182,23 +6146,23 @@
       <c r="T51"/>
     </row>
     <row r="52" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="122" t="s">
+      <c r="A52" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="123"/>
-      <c r="C52" s="123"/>
-      <c r="D52" s="123"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="116" t="s">
+      <c r="B52" s="131"/>
+      <c r="C52" s="131"/>
+      <c r="D52" s="131"/>
+      <c r="E52" s="132"/>
+      <c r="F52" s="124" t="s">
         <v>105</v>
       </c>
-      <c r="G52" s="117"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="116" t="s">
+      <c r="G52" s="125"/>
+      <c r="H52" s="126"/>
+      <c r="I52" s="124" t="s">
         <v>105</v>
       </c>
-      <c r="J52" s="117"/>
-      <c r="K52" s="118"/>
+      <c r="J52" s="125"/>
+      <c r="K52" s="126"/>
       <c r="L52"/>
       <c r="M52"/>
       <c r="N52"/>
@@ -5210,23 +6174,23 @@
       <c r="T52"/>
     </row>
     <row r="53" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="122" t="s">
+      <c r="A53" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="123"/>
-      <c r="C53" s="123"/>
-      <c r="D53" s="123"/>
-      <c r="E53" s="124"/>
-      <c r="F53" s="116" t="s">
+      <c r="B53" s="131"/>
+      <c r="C53" s="131"/>
+      <c r="D53" s="131"/>
+      <c r="E53" s="132"/>
+      <c r="F53" s="124" t="s">
         <v>105</v>
       </c>
-      <c r="G53" s="117"/>
-      <c r="H53" s="118"/>
-      <c r="I53" s="116" t="s">
+      <c r="G53" s="125"/>
+      <c r="H53" s="126"/>
+      <c r="I53" s="124" t="s">
         <v>105</v>
       </c>
-      <c r="J53" s="117"/>
-      <c r="K53" s="118"/>
+      <c r="J53" s="125"/>
+      <c r="K53" s="126"/>
       <c r="L53"/>
       <c r="M53"/>
       <c r="N53"/>
@@ -5238,21 +6202,21 @@
       <c r="T53"/>
     </row>
     <row r="54" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="122" t="s">
+      <c r="A54" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="123"/>
-      <c r="C54" s="123"/>
-      <c r="D54" s="123"/>
-      <c r="E54" s="124"/>
-      <c r="F54" s="116" t="s">
+      <c r="B54" s="131"/>
+      <c r="C54" s="131"/>
+      <c r="D54" s="131"/>
+      <c r="E54" s="132"/>
+      <c r="F54" s="124" t="s">
         <v>105</v>
       </c>
-      <c r="G54" s="117"/>
-      <c r="H54" s="118"/>
-      <c r="I54" s="128"/>
-      <c r="J54" s="129"/>
-      <c r="K54" s="130"/>
+      <c r="G54" s="125"/>
+      <c r="H54" s="126"/>
+      <c r="I54" s="136"/>
+      <c r="J54" s="137"/>
+      <c r="K54" s="138"/>
       <c r="L54"/>
       <c r="M54"/>
       <c r="N54"/>
@@ -5271,32 +6235,32 @@
       <c r="E55" s="7"/>
     </row>
     <row r="56" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="200" t="s">
+      <c r="A56" s="215" t="s">
         <v>84</v>
       </c>
-      <c r="B56" s="200"/>
-      <c r="C56" s="200"/>
-      <c r="D56" s="200"/>
-      <c r="E56" s="200"/>
-      <c r="F56" s="200"/>
-      <c r="G56" s="200"/>
-      <c r="H56" s="200"/>
-      <c r="I56" s="200"/>
-      <c r="J56" s="200"/>
-      <c r="K56" s="200"/>
+      <c r="B56" s="215"/>
+      <c r="C56" s="215"/>
+      <c r="D56" s="215"/>
+      <c r="E56" s="215"/>
+      <c r="F56" s="215"/>
+      <c r="G56" s="215"/>
+      <c r="H56" s="215"/>
+      <c r="I56" s="215"/>
+      <c r="J56" s="215"/>
+      <c r="K56" s="215"/>
     </row>
     <row r="57" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="200"/>
-      <c r="B57" s="200"/>
-      <c r="C57" s="200"/>
-      <c r="D57" s="200"/>
-      <c r="E57" s="200"/>
-      <c r="F57" s="200"/>
-      <c r="G57" s="200"/>
-      <c r="H57" s="200"/>
-      <c r="I57" s="200"/>
-      <c r="J57" s="200"/>
-      <c r="K57" s="200"/>
+      <c r="A57" s="215"/>
+      <c r="B57" s="215"/>
+      <c r="C57" s="215"/>
+      <c r="D57" s="215"/>
+      <c r="E57" s="215"/>
+      <c r="F57" s="215"/>
+      <c r="G57" s="215"/>
+      <c r="H57" s="215"/>
+      <c r="I57" s="215"/>
+      <c r="J57" s="215"/>
+      <c r="K57" s="215"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
@@ -5316,11 +6280,11 @@
       <c r="F59" s="71"/>
       <c r="G59" s="71"/>
       <c r="H59" s="76"/>
-      <c r="I59" s="125" t="s">
+      <c r="I59" s="133" t="s">
         <v>74</v>
       </c>
-      <c r="J59" s="126"/>
-      <c r="K59" s="127"/>
+      <c r="J59" s="134"/>
+      <c r="K59" s="135"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="77"/>
@@ -5350,20 +6314,20 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="77"/>
-      <c r="B62" s="224" t="s">
+      <c r="B62" s="209" t="s">
         <v>106</v>
       </c>
-      <c r="C62" s="224"/>
-      <c r="D62" s="224"/>
-      <c r="E62" s="224"/>
+      <c r="C62" s="209"/>
+      <c r="D62" s="209"/>
+      <c r="E62" s="209"/>
       <c r="F62" s="20"/>
       <c r="G62" s="20"/>
       <c r="H62" s="72"/>
-      <c r="I62" s="226" t="s">
+      <c r="I62" s="210" t="s">
         <v>107</v>
       </c>
-      <c r="J62" s="225"/>
-      <c r="K62" s="227"/>
+      <c r="J62" s="211"/>
+      <c r="K62" s="212"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="77"/>
@@ -5395,11 +6359,11 @@
       <c r="F64" s="90"/>
       <c r="G64" s="90"/>
       <c r="H64" s="91"/>
-      <c r="I64" s="107" t="s">
+      <c r="I64" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="J64" s="108"/>
-      <c r="K64" s="109"/>
+      <c r="J64" s="116"/>
+      <c r="K64" s="117"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="78" t="s">
@@ -5472,11 +6436,11 @@
       <c r="F69" s="20"/>
       <c r="G69" s="20"/>
       <c r="H69" s="79"/>
-      <c r="I69" s="104" t="s">
+      <c r="I69" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="J69" s="105"/>
-      <c r="K69" s="106"/>
+      <c r="J69" s="113"/>
+      <c r="K69" s="114"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="77"/>
@@ -7559,7 +8523,6 @@
     <mergeCell ref="F36:K36"/>
     <mergeCell ref="G35:K35"/>
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C3:D3"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="C21:I21"/>
@@ -7571,8 +8534,6 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C16:I16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="A33:E33"/>
     <mergeCell ref="A1:B1"/>
@@ -7587,11 +8548,12 @@
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="C17:I17"/>
     <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C3:E3"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="G32:K32"/>
     <mergeCell ref="C23:J23"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:J14"/>
     <mergeCell ref="B44:E44"/>
     <mergeCell ref="B38:E38"/>
@@ -7606,6 +8568,8 @@
     <mergeCell ref="G27:K27"/>
     <mergeCell ref="C15:I15"/>
     <mergeCell ref="A41:E41"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C22:I22"/>
     <mergeCell ref="I54:K54"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A54:E54"/>
@@ -7653,8 +8617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A243D4-03E6-407F-80FB-2C5FEF4DDA0D}">
   <dimension ref="A1:T502"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="145" zoomScaleNormal="82" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:J5"/>
+    <sheetView view="pageLayout" zoomScale="145" zoomScaleNormal="82" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7673,45 +8637,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="101">
+      <c r="B1" s="111"/>
+      <c r="C1" s="109">
         <v>2024100031</v>
       </c>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="103"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="192" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
       <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:10" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="204" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="192"/>
-      <c r="C3" s="181" t="s">
+      <c r="B3" s="205"/>
+      <c r="C3" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="181"/>
-      <c r="E3" s="94"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
       <c r="F3" s="95"/>
       <c r="G3" s="95"/>
       <c r="H3" s="95"/>
@@ -7728,15 +8692,15 @@
       <c r="C4" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="137" t="s">
+      <c r="D4" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="138"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="146"/>
     </row>
     <row r="5" spans="1:10" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
@@ -7748,15 +8712,15 @@
       <c r="C5" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="137" t="s">
+      <c r="D5" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="138"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="146"/>
     </row>
     <row r="6" spans="1:10" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
@@ -7768,15 +8732,15 @@
       <c r="C6" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="137" t="s">
+      <c r="D6" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="138"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="146"/>
     </row>
     <row r="7" spans="1:10" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
@@ -7788,15 +8752,15 @@
       <c r="C7" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="145" t="s">
+      <c r="D7" s="153" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="146"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="1:10" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
@@ -7808,15 +8772,15 @@
       <c r="C8" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="173" t="s">
+      <c r="D8" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="173"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="173"/>
-      <c r="J8" s="174"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="186"/>
     </row>
     <row r="9" spans="1:10" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55" t="s">
@@ -7828,15 +8792,15 @@
       <c r="C9" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="145" t="s">
+      <c r="D9" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="146"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="154"/>
     </row>
     <row r="10" spans="1:10" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55" t="s">
@@ -7848,19 +8812,19 @@
       <c r="C10" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="198" t="s">
+      <c r="D10" s="213" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="198"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="199"/>
+      <c r="E10" s="213"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="213"/>
+      <c r="H10" s="213"/>
+      <c r="I10" s="213"/>
+      <c r="J10" s="214"/>
     </row>
     <row r="11" spans="1:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="190"/>
-      <c r="B11" s="190"/>
+      <c r="A11" s="203"/>
+      <c r="B11" s="203"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -7870,10 +8834,10 @@
       <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="197" t="s">
+      <c r="A12" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="197"/>
+      <c r="B12" s="208"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
@@ -7883,185 +8847,185 @@
       <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:10" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="180" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="196"/>
-      <c r="C13" s="151" t="s">
+      <c r="B13" s="181"/>
+      <c r="C13" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="152"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
       <c r="J13" s="24"/>
     </row>
     <row r="14" spans="1:10" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="195" t="s">
+      <c r="A14" s="180" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="196"/>
-      <c r="C14" s="151" t="s">
+      <c r="B14" s="181"/>
+      <c r="C14" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="153"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="159"/>
     </row>
     <row r="15" spans="1:10" s="23" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="177" t="s">
+      <c r="A15" s="176" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="178"/>
-      <c r="C15" s="168" t="s">
+      <c r="B15" s="177"/>
+      <c r="C15" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="169"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="175"/>
       <c r="J15" s="53"/>
     </row>
     <row r="16" spans="1:10" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="195" t="s">
+      <c r="A16" s="180" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="196"/>
-      <c r="C16" s="168" t="s">
+      <c r="B16" s="181"/>
+      <c r="C16" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="175"/>
       <c r="J16" s="52"/>
     </row>
     <row r="17" spans="1:11" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="193" t="s">
+      <c r="A17" s="206" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="194"/>
-      <c r="C17" s="175" t="s">
+      <c r="B17" s="207"/>
+      <c r="C17" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="176"/>
-      <c r="E17" s="176"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="176"/>
-      <c r="I17" s="176"/>
+      <c r="D17" s="188"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="188"/>
       <c r="J17" s="49"/>
     </row>
     <row r="18" spans="1:11" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="182" t="s">
+      <c r="A18" s="195" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="138"/>
-      <c r="C18" s="135" t="s">
+      <c r="B18" s="146"/>
+      <c r="C18" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="136"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="144"/>
       <c r="J18" s="49"/>
     </row>
     <row r="19" spans="1:11" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="182" t="s">
+      <c r="A19" s="195" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="138"/>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="146"/>
+      <c r="C19" s="143" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="136"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="136"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
       <c r="J19" s="48"/>
     </row>
     <row r="20" spans="1:11" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="131"/>
-      <c r="B20" s="132"/>
-      <c r="C20" s="135" t="s">
+      <c r="A20" s="139"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
       <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="164"/>
-      <c r="B21" s="165"/>
-      <c r="C21" s="186" t="s">
+      <c r="A21" s="170"/>
+      <c r="B21" s="171"/>
+      <c r="C21" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="187"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
-      <c r="H21" s="187"/>
-      <c r="I21" s="187"/>
+      <c r="D21" s="200"/>
+      <c r="E21" s="200"/>
+      <c r="F21" s="200"/>
+      <c r="G21" s="200"/>
+      <c r="H21" s="200"/>
+      <c r="I21" s="200"/>
       <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:11" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="131"/>
-      <c r="B22" s="132"/>
-      <c r="C22" s="135" t="s">
+      <c r="A22" s="139"/>
+      <c r="B22" s="140"/>
+      <c r="C22" s="143" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="144"/>
+      <c r="I22" s="144"/>
       <c r="J22" s="48"/>
     </row>
     <row r="23" spans="1:11" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="131"/>
-      <c r="B23" s="132"/>
-      <c r="C23" s="135" t="s">
+      <c r="A23" s="139"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="132"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="144"/>
+      <c r="H23" s="144"/>
+      <c r="I23" s="144"/>
+      <c r="J23" s="140"/>
     </row>
     <row r="24" spans="1:11" s="23" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="147"/>
-      <c r="B24" s="148"/>
-      <c r="C24" s="188" t="s">
+      <c r="A24" s="155"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="189"/>
-      <c r="E24" s="189"/>
-      <c r="F24" s="189"/>
-      <c r="G24" s="189"/>
-      <c r="H24" s="189"/>
-      <c r="I24" s="189"/>
+      <c r="D24" s="202"/>
+      <c r="E24" s="202"/>
+      <c r="F24" s="202"/>
+      <c r="G24" s="202"/>
+      <c r="H24" s="202"/>
+      <c r="I24" s="202"/>
       <c r="J24" s="51"/>
     </row>
     <row r="25" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8089,383 +9053,383 @@
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:11" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="183" t="s">
+      <c r="A27" s="196" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="184"/>
-      <c r="C27" s="184"/>
-      <c r="D27" s="184"/>
-      <c r="E27" s="185"/>
+      <c r="B27" s="197"/>
+      <c r="C27" s="197"/>
+      <c r="D27" s="197"/>
+      <c r="E27" s="198"/>
       <c r="F27" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="166" t="s">
+      <c r="G27" s="172" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="166"/>
-      <c r="I27" s="166"/>
-      <c r="J27" s="166"/>
-      <c r="K27" s="167"/>
+      <c r="H27" s="172"/>
+      <c r="I27" s="172"/>
+      <c r="J27" s="172"/>
+      <c r="K27" s="173"/>
     </row>
     <row r="28" spans="1:11" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="156" t="s">
+      <c r="B28" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="157"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="163"/>
       <c r="F28" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="137" t="s">
+      <c r="G28" s="145" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="137"/>
-      <c r="I28" s="137"/>
-      <c r="J28" s="137"/>
-      <c r="K28" s="138"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="146"/>
     </row>
     <row r="29" spans="1:11" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="156" t="s">
+      <c r="B29" s="162" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="156"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="157"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="162"/>
+      <c r="E29" s="163"/>
       <c r="F29" s="38"/>
-      <c r="G29" s="137" t="s">
+      <c r="G29" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="H29" s="137"/>
-      <c r="I29" s="137"/>
-      <c r="J29" s="137"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="145"/>
       <c r="K29" s="97"/>
     </row>
     <row r="30" spans="1:11" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="46"/>
-      <c r="B30" s="139"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="140"/>
+      <c r="B30" s="147"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="148"/>
       <c r="F30" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="G30" s="139" t="s">
+      <c r="G30" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="H30" s="139"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="139"/>
-      <c r="K30" s="140"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="147"/>
+      <c r="K30" s="148"/>
     </row>
     <row r="31" spans="1:11" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="135"/>
-      <c r="B31" s="136"/>
-      <c r="C31" s="136"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="132"/>
+      <c r="A31" s="143"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="140"/>
       <c r="F31" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="141" t="s">
+      <c r="G31" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="141"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="141"/>
-      <c r="K31" s="142"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="150"/>
     </row>
     <row r="32" spans="1:11" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="135"/>
-      <c r="B32" s="136"/>
-      <c r="C32" s="136"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="132"/>
+      <c r="A32" s="143"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="140"/>
       <c r="F32" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="G32" s="149" t="s">
+      <c r="G32" s="178" t="s">
         <v>79</v>
       </c>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="150"/>
+      <c r="H32" s="178"/>
+      <c r="I32" s="178"/>
+      <c r="J32" s="178"/>
+      <c r="K32" s="179"/>
     </row>
     <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="170"/>
-      <c r="B33" s="171"/>
-      <c r="C33" s="171"/>
-      <c r="D33" s="171"/>
-      <c r="E33" s="172"/>
+      <c r="A33" s="182"/>
+      <c r="B33" s="183"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="184"/>
       <c r="F33" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="143" t="s">
+      <c r="G33" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="143"/>
-      <c r="I33" s="143"/>
-      <c r="J33" s="143"/>
-      <c r="K33" s="144"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="151"/>
+      <c r="K33" s="152"/>
     </row>
     <row r="34" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="170"/>
-      <c r="B34" s="171"/>
-      <c r="C34" s="171"/>
-      <c r="D34" s="171"/>
-      <c r="E34" s="172"/>
+      <c r="A34" s="182"/>
+      <c r="B34" s="183"/>
+      <c r="C34" s="183"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="184"/>
       <c r="F34" s="41"/>
-      <c r="G34" s="137" t="s">
+      <c r="G34" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="H34" s="137"/>
-      <c r="I34" s="137"/>
-      <c r="J34" s="137"/>
-      <c r="K34" s="138"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="145"/>
+      <c r="K34" s="146"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="207"/>
-      <c r="B35" s="208"/>
-      <c r="C35" s="208"/>
-      <c r="D35" s="208"/>
-      <c r="E35" s="209"/>
+      <c r="A35" s="222"/>
+      <c r="B35" s="223"/>
+      <c r="C35" s="223"/>
+      <c r="D35" s="223"/>
+      <c r="E35" s="224"/>
       <c r="F35" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="G35" s="218" t="s">
+      <c r="G35" s="190" t="s">
         <v>45</v>
       </c>
-      <c r="H35" s="218"/>
-      <c r="I35" s="218"/>
-      <c r="J35" s="218"/>
-      <c r="K35" s="219"/>
+      <c r="H35" s="190"/>
+      <c r="I35" s="190"/>
+      <c r="J35" s="190"/>
+      <c r="K35" s="191"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="210" t="s">
+      <c r="A36" s="225" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="211"/>
-      <c r="C36" s="211"/>
-      <c r="D36" s="211"/>
-      <c r="E36" s="212"/>
-      <c r="F36" s="217" t="s">
+      <c r="B36" s="226"/>
+      <c r="C36" s="226"/>
+      <c r="D36" s="226"/>
+      <c r="E36" s="227"/>
+      <c r="F36" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="166"/>
-      <c r="H36" s="166"/>
-      <c r="I36" s="166"/>
-      <c r="J36" s="166"/>
-      <c r="K36" s="167"/>
+      <c r="G36" s="172"/>
+      <c r="H36" s="172"/>
+      <c r="I36" s="172"/>
+      <c r="J36" s="172"/>
+      <c r="K36" s="173"/>
     </row>
     <row r="37" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="161" t="s">
+      <c r="A37" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="162"/>
-      <c r="C37" s="162"/>
-      <c r="D37" s="162"/>
-      <c r="E37" s="163"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
+      <c r="E37" s="169"/>
       <c r="F37" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="G37" s="187" t="s">
+      <c r="G37" s="200" t="s">
         <v>81</v>
       </c>
-      <c r="H37" s="187"/>
-      <c r="I37" s="187"/>
-      <c r="J37" s="187"/>
-      <c r="K37" s="216"/>
+      <c r="H37" s="200"/>
+      <c r="I37" s="200"/>
+      <c r="J37" s="200"/>
+      <c r="K37" s="231"/>
     </row>
     <row r="38" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="156" t="s">
+      <c r="B38" s="162" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="156"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="157"/>
+      <c r="C38" s="162"/>
+      <c r="D38" s="162"/>
+      <c r="E38" s="163"/>
       <c r="F38" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="G38" s="141" t="s">
+      <c r="G38" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="H38" s="141"/>
-      <c r="I38" s="141"/>
-      <c r="J38" s="141"/>
-      <c r="K38" s="142"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="150"/>
     </row>
     <row r="39" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="137" t="s">
+      <c r="B39" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="137"/>
-      <c r="D39" s="137"/>
-      <c r="E39" s="138"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="146"/>
       <c r="F39" s="42"/>
-      <c r="G39" s="141" t="s">
+      <c r="G39" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="H39" s="141"/>
-      <c r="I39" s="141"/>
-      <c r="J39" s="141"/>
-      <c r="K39" s="142"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="150"/>
     </row>
     <row r="40" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="158" t="s">
+      <c r="A40" s="164" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="159"/>
-      <c r="C40" s="159"/>
-      <c r="D40" s="159"/>
-      <c r="E40" s="160"/>
+      <c r="B40" s="165"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
+      <c r="E40" s="166"/>
       <c r="F40" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="G40" s="141" t="s">
+      <c r="G40" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="H40" s="141"/>
-      <c r="I40" s="141"/>
-      <c r="J40" s="141"/>
-      <c r="K40" s="142"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="150"/>
     </row>
     <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="158" t="s">
+      <c r="A41" s="164" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="159"/>
-      <c r="C41" s="159"/>
-      <c r="D41" s="159"/>
-      <c r="E41" s="160"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
+      <c r="E41" s="166"/>
       <c r="F41" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="G41" s="141" t="s">
+      <c r="G41" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="141"/>
-      <c r="I41" s="141"/>
-      <c r="J41" s="141"/>
-      <c r="K41" s="142"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="150"/>
     </row>
     <row r="42" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="158" t="s">
+      <c r="A42" s="164" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="159"/>
-      <c r="C42" s="159"/>
-      <c r="D42" s="159"/>
-      <c r="E42" s="160"/>
+      <c r="B42" s="165"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
+      <c r="E42" s="166"/>
       <c r="F42" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G42" s="149" t="s">
+      <c r="G42" s="178" t="s">
         <v>83</v>
       </c>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="150"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
+      <c r="J42" s="178"/>
+      <c r="K42" s="179"/>
     </row>
     <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="161" t="s">
+      <c r="A43" s="167" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="162"/>
-      <c r="C43" s="162"/>
-      <c r="D43" s="162"/>
-      <c r="E43" s="163"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
+      <c r="E43" s="169"/>
       <c r="F43" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="G43" s="137" t="s">
+      <c r="G43" s="145" t="s">
         <v>58</v>
       </c>
-      <c r="H43" s="137"/>
-      <c r="I43" s="137"/>
-      <c r="J43" s="137"/>
-      <c r="K43" s="138"/>
+      <c r="H43" s="145"/>
+      <c r="I43" s="145"/>
+      <c r="J43" s="145"/>
+      <c r="K43" s="146"/>
     </row>
     <row r="44" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="154" t="s">
+      <c r="B44" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="154"/>
-      <c r="D44" s="154"/>
-      <c r="E44" s="155"/>
+      <c r="C44" s="160"/>
+      <c r="D44" s="160"/>
+      <c r="E44" s="161"/>
       <c r="F44" s="41"/>
-      <c r="G44" s="137" t="s">
+      <c r="G44" s="145" t="s">
         <v>57</v>
       </c>
-      <c r="H44" s="137"/>
-      <c r="I44" s="137"/>
-      <c r="J44" s="137"/>
-      <c r="K44" s="138"/>
+      <c r="H44" s="145"/>
+      <c r="I44" s="145"/>
+      <c r="J44" s="145"/>
+      <c r="K44" s="146"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="133" t="s">
+      <c r="B45" s="141" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="133"/>
-      <c r="D45" s="133"/>
-      <c r="E45" s="134"/>
+      <c r="C45" s="141"/>
+      <c r="D45" s="141"/>
+      <c r="E45" s="142"/>
       <c r="F45" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="145" t="s">
+      <c r="G45" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="H45" s="145"/>
-      <c r="I45" s="145"/>
-      <c r="J45" s="145"/>
-      <c r="K45" s="146"/>
+      <c r="H45" s="153"/>
+      <c r="I45" s="153"/>
+      <c r="J45" s="153"/>
+      <c r="K45" s="154"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="201" t="s">
+      <c r="A46" s="216" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="202"/>
-      <c r="C46" s="202"/>
-      <c r="D46" s="202"/>
-      <c r="E46" s="202"/>
-      <c r="F46" s="202"/>
-      <c r="G46" s="202"/>
-      <c r="H46" s="202"/>
-      <c r="I46" s="202"/>
-      <c r="J46" s="202"/>
-      <c r="K46" s="203"/>
+      <c r="B46" s="217"/>
+      <c r="C46" s="217"/>
+      <c r="D46" s="217"/>
+      <c r="E46" s="217"/>
+      <c r="F46" s="217"/>
+      <c r="G46" s="217"/>
+      <c r="H46" s="217"/>
+      <c r="I46" s="217"/>
+      <c r="J46" s="217"/>
+      <c r="K46" s="218"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="204"/>
-      <c r="B47" s="205"/>
-      <c r="C47" s="205"/>
-      <c r="D47" s="205"/>
-      <c r="E47" s="205"/>
-      <c r="F47" s="205"/>
-      <c r="G47" s="205"/>
-      <c r="H47" s="205"/>
-      <c r="I47" s="205"/>
-      <c r="J47" s="205"/>
-      <c r="K47" s="206"/>
+      <c r="A47" s="219"/>
+      <c r="B47" s="220"/>
+      <c r="C47" s="220"/>
+      <c r="D47" s="220"/>
+      <c r="E47" s="220"/>
+      <c r="F47" s="220"/>
+      <c r="G47" s="220"/>
+      <c r="H47" s="220"/>
+      <c r="I47" s="220"/>
+      <c r="J47" s="220"/>
+      <c r="K47" s="221"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="64"/>
@@ -8481,38 +9445,38 @@
       <c r="K48" s="64"/>
     </row>
     <row r="49" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="110" t="s">
+      <c r="A49" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="111"/>
-      <c r="C49" s="111"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="111"/>
-      <c r="F49" s="111"/>
-      <c r="G49" s="111"/>
-      <c r="H49" s="111"/>
-      <c r="I49" s="111"/>
-      <c r="J49" s="111"/>
-      <c r="K49" s="112"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="119"/>
+      <c r="F49" s="119"/>
+      <c r="G49" s="119"/>
+      <c r="H49" s="119"/>
+      <c r="I49" s="119"/>
+      <c r="J49" s="119"/>
+      <c r="K49" s="120"/>
     </row>
     <row r="50" spans="1:20" s="65" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="110" t="s">
+      <c r="A50" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="111"/>
-      <c r="C50" s="111"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="112"/>
-      <c r="F50" s="213" t="s">
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="120"/>
+      <c r="F50" s="228" t="s">
         <v>11</v>
       </c>
-      <c r="G50" s="214"/>
-      <c r="H50" s="215"/>
-      <c r="I50" s="113" t="s">
+      <c r="G50" s="229"/>
+      <c r="H50" s="230"/>
+      <c r="I50" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="J50" s="114"/>
-      <c r="K50" s="115"/>
+      <c r="J50" s="122"/>
+      <c r="K50" s="123"/>
       <c r="L50"/>
       <c r="M50"/>
       <c r="N50"/>
@@ -8524,23 +9488,23 @@
       <c r="T50"/>
     </row>
     <row r="51" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="122" t="s">
+      <c r="A51" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="123"/>
-      <c r="C51" s="123"/>
-      <c r="D51" s="123"/>
-      <c r="E51" s="124"/>
-      <c r="F51" s="119">
+      <c r="B51" s="131"/>
+      <c r="C51" s="131"/>
+      <c r="D51" s="131"/>
+      <c r="E51" s="132"/>
+      <c r="F51" s="127">
         <v>6</v>
       </c>
-      <c r="G51" s="120"/>
-      <c r="H51" s="121"/>
-      <c r="I51" s="116">
+      <c r="G51" s="128"/>
+      <c r="H51" s="129"/>
+      <c r="I51" s="124">
         <v>5</v>
       </c>
-      <c r="J51" s="117"/>
-      <c r="K51" s="118"/>
+      <c r="J51" s="125"/>
+      <c r="K51" s="126"/>
       <c r="L51"/>
       <c r="M51"/>
       <c r="N51"/>
@@ -8552,23 +9516,23 @@
       <c r="T51"/>
     </row>
     <row r="52" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="122" t="s">
+      <c r="A52" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="123"/>
-      <c r="C52" s="123"/>
-      <c r="D52" s="123"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="116" t="s">
+      <c r="B52" s="131"/>
+      <c r="C52" s="131"/>
+      <c r="D52" s="131"/>
+      <c r="E52" s="132"/>
+      <c r="F52" s="124" t="s">
         <v>105</v>
       </c>
-      <c r="G52" s="117"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="116" t="s">
+      <c r="G52" s="125"/>
+      <c r="H52" s="126"/>
+      <c r="I52" s="124" t="s">
         <v>105</v>
       </c>
-      <c r="J52" s="117"/>
-      <c r="K52" s="118"/>
+      <c r="J52" s="125"/>
+      <c r="K52" s="126"/>
       <c r="L52"/>
       <c r="M52"/>
       <c r="N52"/>
@@ -8580,23 +9544,23 @@
       <c r="T52"/>
     </row>
     <row r="53" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="122" t="s">
+      <c r="A53" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="123"/>
-      <c r="C53" s="123"/>
-      <c r="D53" s="123"/>
-      <c r="E53" s="124"/>
-      <c r="F53" s="116" t="s">
+      <c r="B53" s="131"/>
+      <c r="C53" s="131"/>
+      <c r="D53" s="131"/>
+      <c r="E53" s="132"/>
+      <c r="F53" s="124" t="s">
         <v>105</v>
       </c>
-      <c r="G53" s="117"/>
-      <c r="H53" s="118"/>
-      <c r="I53" s="116" t="s">
+      <c r="G53" s="125"/>
+      <c r="H53" s="126"/>
+      <c r="I53" s="124" t="s">
         <v>105</v>
       </c>
-      <c r="J53" s="117"/>
-      <c r="K53" s="118"/>
+      <c r="J53" s="125"/>
+      <c r="K53" s="126"/>
       <c r="L53"/>
       <c r="M53"/>
       <c r="N53"/>
@@ -8608,21 +9572,21 @@
       <c r="T53"/>
     </row>
     <row r="54" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="122" t="s">
+      <c r="A54" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="123"/>
-      <c r="C54" s="123"/>
-      <c r="D54" s="123"/>
-      <c r="E54" s="124"/>
-      <c r="F54" s="116" t="s">
+      <c r="B54" s="131"/>
+      <c r="C54" s="131"/>
+      <c r="D54" s="131"/>
+      <c r="E54" s="132"/>
+      <c r="F54" s="124" t="s">
         <v>105</v>
       </c>
-      <c r="G54" s="117"/>
-      <c r="H54" s="118"/>
-      <c r="I54" s="128"/>
-      <c r="J54" s="129"/>
-      <c r="K54" s="130"/>
+      <c r="G54" s="125"/>
+      <c r="H54" s="126"/>
+      <c r="I54" s="136"/>
+      <c r="J54" s="137"/>
+      <c r="K54" s="138"/>
       <c r="L54"/>
       <c r="M54"/>
       <c r="N54"/>
@@ -8641,32 +9605,32 @@
       <c r="E55" s="7"/>
     </row>
     <row r="56" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="200" t="s">
+      <c r="A56" s="215" t="s">
         <v>84</v>
       </c>
-      <c r="B56" s="200"/>
-      <c r="C56" s="200"/>
-      <c r="D56" s="200"/>
-      <c r="E56" s="200"/>
-      <c r="F56" s="200"/>
-      <c r="G56" s="200"/>
-      <c r="H56" s="200"/>
-      <c r="I56" s="200"/>
-      <c r="J56" s="200"/>
-      <c r="K56" s="200"/>
+      <c r="B56" s="215"/>
+      <c r="C56" s="215"/>
+      <c r="D56" s="215"/>
+      <c r="E56" s="215"/>
+      <c r="F56" s="215"/>
+      <c r="G56" s="215"/>
+      <c r="H56" s="215"/>
+      <c r="I56" s="215"/>
+      <c r="J56" s="215"/>
+      <c r="K56" s="215"/>
     </row>
     <row r="57" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="200"/>
-      <c r="B57" s="200"/>
-      <c r="C57" s="200"/>
-      <c r="D57" s="200"/>
-      <c r="E57" s="200"/>
-      <c r="F57" s="200"/>
-      <c r="G57" s="200"/>
-      <c r="H57" s="200"/>
-      <c r="I57" s="200"/>
-      <c r="J57" s="200"/>
-      <c r="K57" s="200"/>
+      <c r="A57" s="215"/>
+      <c r="B57" s="215"/>
+      <c r="C57" s="215"/>
+      <c r="D57" s="215"/>
+      <c r="E57" s="215"/>
+      <c r="F57" s="215"/>
+      <c r="G57" s="215"/>
+      <c r="H57" s="215"/>
+      <c r="I57" s="215"/>
+      <c r="J57" s="215"/>
+      <c r="K57" s="215"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
@@ -8686,11 +9650,11 @@
       <c r="F59" s="71"/>
       <c r="G59" s="71"/>
       <c r="H59" s="76"/>
-      <c r="I59" s="125" t="s">
+      <c r="I59" s="133" t="s">
         <v>74</v>
       </c>
-      <c r="J59" s="126"/>
-      <c r="K59" s="127"/>
+      <c r="J59" s="134"/>
+      <c r="K59" s="135"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="77"/>
@@ -8720,20 +9684,20 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="77"/>
-      <c r="B62" s="224" t="s">
+      <c r="B62" s="209" t="s">
         <v>106</v>
       </c>
-      <c r="C62" s="224"/>
-      <c r="D62" s="224"/>
-      <c r="E62" s="224"/>
+      <c r="C62" s="209"/>
+      <c r="D62" s="209"/>
+      <c r="E62" s="209"/>
       <c r="F62" s="20"/>
       <c r="G62" s="20"/>
       <c r="H62" s="72"/>
-      <c r="I62" s="226" t="s">
+      <c r="I62" s="210" t="s">
         <v>107</v>
       </c>
-      <c r="J62" s="225"/>
-      <c r="K62" s="227"/>
+      <c r="J62" s="211"/>
+      <c r="K62" s="212"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="77"/>
@@ -8765,11 +9729,11 @@
       <c r="F64" s="90"/>
       <c r="G64" s="90"/>
       <c r="H64" s="91"/>
-      <c r="I64" s="107" t="s">
+      <c r="I64" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="J64" s="108"/>
-      <c r="K64" s="109"/>
+      <c r="J64" s="116"/>
+      <c r="K64" s="117"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="78" t="s">
@@ -8842,11 +9806,11 @@
       <c r="F69" s="20"/>
       <c r="G69" s="20"/>
       <c r="H69" s="79"/>
-      <c r="I69" s="104" t="s">
+      <c r="I69" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="J69" s="105"/>
-      <c r="K69" s="106"/>
+      <c r="J69" s="113"/>
+      <c r="K69" s="114"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="77"/>
@@ -10930,11 +11894,6 @@
     <mergeCell ref="A51:E51"/>
     <mergeCell ref="F51:H51"/>
     <mergeCell ref="I51:K51"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="A46:K47"/>
     <mergeCell ref="A49:K49"/>
     <mergeCell ref="A41:E41"/>
     <mergeCell ref="G41:K41"/>
@@ -10942,6 +11901,11 @@
     <mergeCell ref="G42:K42"/>
     <mergeCell ref="A43:E43"/>
     <mergeCell ref="G43:K43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="A46:K47"/>
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="G38:K38"/>
     <mergeCell ref="B39:E39"/>
@@ -10996,18 +11960,18 @@
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:J14"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D4:J4"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="D6:J6"/>
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.64950980392156865" right="0.7" top="0.83333333333333337" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11020,6 +11984,3376 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E6051B-ABA5-4EE4-A863-C155EA7368B7}">
+  <dimension ref="A1:T502"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="145" zoomScaleNormal="82" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="1.5703125" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="109">
+        <v>2024100024</v>
+      </c>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="111"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="192" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="57"/>
+    </row>
+    <row r="3" spans="1:10" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="204" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="205"/>
+      <c r="C3" s="194" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="49"/>
+    </row>
+    <row r="4" spans="1:10" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="145" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="146"/>
+    </row>
+    <row r="5" spans="1:10" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="145" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="146"/>
+    </row>
+    <row r="6" spans="1:10" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="145" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="146"/>
+    </row>
+    <row r="7" spans="1:10" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="153" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
+    </row>
+    <row r="8" spans="1:10" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="108" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="185" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="185"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="186"/>
+    </row>
+    <row r="9" spans="1:10" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="153" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="153"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="154"/>
+    </row>
+    <row r="10" spans="1:10" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="105" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="213" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="213"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="213"/>
+      <c r="H10" s="213"/>
+      <c r="I10" s="213"/>
+      <c r="J10" s="214"/>
+    </row>
+    <row r="11" spans="1:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="203"/>
+      <c r="B11" s="203"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="208" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="208"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="180" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="181"/>
+      <c r="C13" s="157" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="158"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="24"/>
+    </row>
+    <row r="14" spans="1:10" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="180" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="181"/>
+      <c r="C14" s="157" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="158"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="159"/>
+    </row>
+    <row r="15" spans="1:10" s="23" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="176" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="177"/>
+      <c r="C15" s="174" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="53"/>
+    </row>
+    <row r="16" spans="1:10" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="180" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="181"/>
+      <c r="C16" s="174" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="175"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="52"/>
+    </row>
+    <row r="17" spans="1:11" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="206" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="207"/>
+      <c r="C17" s="187" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="188"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="188"/>
+      <c r="J17" s="49"/>
+    </row>
+    <row r="18" spans="1:11" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="195" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="146"/>
+      <c r="C18" s="143" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="49"/>
+    </row>
+    <row r="19" spans="1:11" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="195" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="146"/>
+      <c r="C19" s="143" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="48"/>
+    </row>
+    <row r="20" spans="1:11" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="139"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="143" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="48"/>
+    </row>
+    <row r="21" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="170"/>
+      <c r="B21" s="171"/>
+      <c r="C21" s="199" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="200"/>
+      <c r="E21" s="200"/>
+      <c r="F21" s="200"/>
+      <c r="G21" s="200"/>
+      <c r="H21" s="200"/>
+      <c r="I21" s="200"/>
+      <c r="J21" s="50"/>
+    </row>
+    <row r="22" spans="1:11" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="139"/>
+      <c r="B22" s="140"/>
+      <c r="C22" s="143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="144"/>
+      <c r="I22" s="144"/>
+      <c r="J22" s="48"/>
+    </row>
+    <row r="23" spans="1:11" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="139"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="143" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="144"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="144"/>
+      <c r="H23" s="144"/>
+      <c r="I23" s="144"/>
+      <c r="J23" s="140"/>
+    </row>
+    <row r="24" spans="1:11" s="23" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="155"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="201" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="202"/>
+      <c r="E24" s="202"/>
+      <c r="F24" s="202"/>
+      <c r="G24" s="202"/>
+      <c r="H24" s="202"/>
+      <c r="I24" s="202"/>
+      <c r="J24" s="51"/>
+    </row>
+    <row r="25" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="107"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="196" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="197"/>
+      <c r="C27" s="197"/>
+      <c r="D27" s="197"/>
+      <c r="E27" s="198"/>
+      <c r="F27" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="172" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" s="172"/>
+      <c r="I27" s="172"/>
+      <c r="J27" s="172"/>
+      <c r="K27" s="173"/>
+    </row>
+    <row r="28" spans="1:11" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="145" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="146"/>
+    </row>
+    <row r="29" spans="1:11" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="162" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="162"/>
+      <c r="D29" s="162"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="145" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="145"/>
+      <c r="K29" s="106"/>
+    </row>
+    <row r="30" spans="1:11" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="46"/>
+      <c r="B30" s="147"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="147" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="147"/>
+      <c r="K30" s="148"/>
+    </row>
+    <row r="31" spans="1:11" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="143"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="149" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="150"/>
+    </row>
+    <row r="32" spans="1:11" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="143"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="178" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="178"/>
+      <c r="I32" s="178"/>
+      <c r="J32" s="178"/>
+      <c r="K32" s="179"/>
+    </row>
+    <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="182"/>
+      <c r="B33" s="183"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="184"/>
+      <c r="F33" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="151" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="151"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="151"/>
+      <c r="K33" s="152"/>
+    </row>
+    <row r="34" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="182"/>
+      <c r="B34" s="183"/>
+      <c r="C34" s="183"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="184"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="145" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="145"/>
+      <c r="K34" s="146"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="222"/>
+      <c r="B35" s="223"/>
+      <c r="C35" s="223"/>
+      <c r="D35" s="223"/>
+      <c r="E35" s="224"/>
+      <c r="F35" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="190" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="190"/>
+      <c r="I35" s="190"/>
+      <c r="J35" s="190"/>
+      <c r="K35" s="191"/>
+    </row>
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="225" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="226"/>
+      <c r="C36" s="226"/>
+      <c r="D36" s="226"/>
+      <c r="E36" s="227"/>
+      <c r="F36" s="189" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="172"/>
+      <c r="H36" s="172"/>
+      <c r="I36" s="172"/>
+      <c r="J36" s="172"/>
+      <c r="K36" s="173"/>
+    </row>
+    <row r="37" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="167" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
+      <c r="E37" s="169"/>
+      <c r="F37" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" s="200" t="s">
+        <v>81</v>
+      </c>
+      <c r="H37" s="200"/>
+      <c r="I37" s="200"/>
+      <c r="J37" s="200"/>
+      <c r="K37" s="231"/>
+    </row>
+    <row r="38" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="162" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="162"/>
+      <c r="D38" s="162"/>
+      <c r="E38" s="163"/>
+      <c r="F38" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="149" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="150"/>
+    </row>
+    <row r="39" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="145" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="145"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="146"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="149" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="150"/>
+    </row>
+    <row r="40" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="164" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="165"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
+      <c r="E40" s="166"/>
+      <c r="F40" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="149" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="150"/>
+    </row>
+    <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="164" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="165"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
+      <c r="E41" s="166"/>
+      <c r="F41" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="149" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="150"/>
+    </row>
+    <row r="42" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="164" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="165"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
+      <c r="E42" s="166"/>
+      <c r="F42" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="G42" s="178" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
+      <c r="J42" s="178"/>
+      <c r="K42" s="179"/>
+    </row>
+    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="167" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
+      <c r="E43" s="169"/>
+      <c r="F43" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43" s="145" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" s="145"/>
+      <c r="I43" s="145"/>
+      <c r="J43" s="145"/>
+      <c r="K43" s="146"/>
+    </row>
+    <row r="44" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="160"/>
+      <c r="D44" s="160"/>
+      <c r="E44" s="161"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="145" t="s">
+        <v>57</v>
+      </c>
+      <c r="H44" s="145"/>
+      <c r="I44" s="145"/>
+      <c r="J44" s="145"/>
+      <c r="K44" s="146"/>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="141" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="141"/>
+      <c r="D45" s="141"/>
+      <c r="E45" s="142"/>
+      <c r="F45" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="153" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" s="153"/>
+      <c r="I45" s="153"/>
+      <c r="J45" s="153"/>
+      <c r="K45" s="154"/>
+    </row>
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="216" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="217"/>
+      <c r="C46" s="217"/>
+      <c r="D46" s="217"/>
+      <c r="E46" s="217"/>
+      <c r="F46" s="217"/>
+      <c r="G46" s="217"/>
+      <c r="H46" s="217"/>
+      <c r="I46" s="217"/>
+      <c r="J46" s="217"/>
+      <c r="K46" s="218"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="219"/>
+      <c r="B47" s="220"/>
+      <c r="C47" s="220"/>
+      <c r="D47" s="220"/>
+      <c r="E47" s="220"/>
+      <c r="F47" s="220"/>
+      <c r="G47" s="220"/>
+      <c r="H47" s="220"/>
+      <c r="I47" s="220"/>
+      <c r="J47" s="220"/>
+      <c r="K47" s="221"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="64"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="64"/>
+      <c r="K48" s="64"/>
+    </row>
+    <row r="49" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="119"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="119"/>
+      <c r="F49" s="119"/>
+      <c r="G49" s="119"/>
+      <c r="H49" s="119"/>
+      <c r="I49" s="119"/>
+      <c r="J49" s="119"/>
+      <c r="K49" s="120"/>
+    </row>
+    <row r="50" spans="1:20" s="65" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="120"/>
+      <c r="F50" s="228" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="229"/>
+      <c r="H50" s="230"/>
+      <c r="I50" s="121" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="122"/>
+      <c r="K50" s="123"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+    </row>
+    <row r="51" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="131"/>
+      <c r="C51" s="131"/>
+      <c r="D51" s="131"/>
+      <c r="E51" s="132"/>
+      <c r="F51" s="127">
+        <v>6</v>
+      </c>
+      <c r="G51" s="128"/>
+      <c r="H51" s="129"/>
+      <c r="I51" s="124">
+        <v>25</v>
+      </c>
+      <c r="J51" s="125"/>
+      <c r="K51" s="126"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+    </row>
+    <row r="52" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="130" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="131"/>
+      <c r="C52" s="131"/>
+      <c r="D52" s="131"/>
+      <c r="E52" s="132"/>
+      <c r="F52" s="124">
+        <v>0</v>
+      </c>
+      <c r="G52" s="125"/>
+      <c r="H52" s="126"/>
+      <c r="I52" s="124" t="s">
+        <v>105</v>
+      </c>
+      <c r="J52" s="125"/>
+      <c r="K52" s="126"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+    </row>
+    <row r="53" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="130" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="131"/>
+      <c r="C53" s="131"/>
+      <c r="D53" s="131"/>
+      <c r="E53" s="132"/>
+      <c r="F53" s="124">
+        <v>0</v>
+      </c>
+      <c r="G53" s="125"/>
+      <c r="H53" s="126"/>
+      <c r="I53" s="124" t="s">
+        <v>105</v>
+      </c>
+      <c r="J53" s="125"/>
+      <c r="K53" s="126"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+    </row>
+    <row r="54" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="130" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="131"/>
+      <c r="C54" s="131"/>
+      <c r="D54" s="131"/>
+      <c r="E54" s="132"/>
+      <c r="F54" s="124">
+        <v>0</v>
+      </c>
+      <c r="G54" s="125"/>
+      <c r="H54" s="126"/>
+      <c r="I54" s="136"/>
+      <c r="J54" s="137"/>
+      <c r="K54" s="138"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="215" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="215"/>
+      <c r="C56" s="215"/>
+      <c r="D56" s="215"/>
+      <c r="E56" s="215"/>
+      <c r="F56" s="215"/>
+      <c r="G56" s="215"/>
+      <c r="H56" s="215"/>
+      <c r="I56" s="215"/>
+      <c r="J56" s="215"/>
+      <c r="K56" s="215"/>
+    </row>
+    <row r="57" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="215"/>
+      <c r="B57" s="215"/>
+      <c r="C57" s="215"/>
+      <c r="D57" s="215"/>
+      <c r="E57" s="215"/>
+      <c r="F57" s="215"/>
+      <c r="G57" s="215"/>
+      <c r="H57" s="215"/>
+      <c r="I57" s="215"/>
+      <c r="J57" s="215"/>
+      <c r="K57" s="215"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="102" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="75"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="75"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="133" t="s">
+        <v>74</v>
+      </c>
+      <c r="J59" s="134"/>
+      <c r="K59" s="135"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="77"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="25"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="77"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="72"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="25"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="77"/>
+      <c r="B62" s="209" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="209"/>
+      <c r="D62" s="209"/>
+      <c r="E62" s="209"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="210" t="s">
+        <v>107</v>
+      </c>
+      <c r="J62" s="211"/>
+      <c r="K62" s="212"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="77"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="25"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="D64" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="89"/>
+      <c r="F64" s="90"/>
+      <c r="G64" s="90"/>
+      <c r="H64" s="91"/>
+      <c r="I64" s="115" t="s">
+        <v>73</v>
+      </c>
+      <c r="J64" s="116"/>
+      <c r="K64" s="117"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="69"/>
+      <c r="F65" s="101"/>
+      <c r="G65" s="101"/>
+      <c r="H65" s="72"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="72"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="77"/>
+      <c r="B66" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" s="69"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="101"/>
+      <c r="G66" s="101"/>
+      <c r="H66" s="72"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="72"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="77"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="72"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="72"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="77"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="72"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="72"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="77"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="79"/>
+      <c r="I69" s="112" t="s">
+        <v>74</v>
+      </c>
+      <c r="J69" s="113"/>
+      <c r="K69" s="114"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="77"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="72"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="72"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="77"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="72"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="72"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="80"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="72"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="81"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="72"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="72"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="82"/>
+      <c r="B74" s="83"/>
+      <c r="C74" s="84"/>
+      <c r="D74" s="84"/>
+      <c r="E74" s="84"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="66"/>
+      <c r="H74" s="73"/>
+      <c r="I74" s="66"/>
+      <c r="J74" s="66"/>
+      <c r="K74" s="73"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="12"/>
+      <c r="B75" s="107"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="20"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="12"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="20"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="13"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="20"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="13"/>
+      <c r="B78" s="60"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="20"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="13"/>
+      <c r="B79" s="60"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="20"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="13"/>
+      <c r="B80" s="107"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="20"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="13"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="20"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="11"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="20"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="20"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="12"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="20"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="12"/>
+      <c r="B85" s="107"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="20"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="61"/>
+      <c r="B86" s="107"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="20"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="11"/>
+      <c r="B87" s="62"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="20"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="12"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="20"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="12"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="20"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="12"/>
+      <c r="B90" s="63"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="20"/>
+    </row>
+    <row r="95" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="20"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="20"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="20"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="20"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="20"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="20"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="20"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="20"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="20"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="20"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="20"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="20"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="20"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="20"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="20"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="20"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="20"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="20"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="20"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="20"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="20"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="20"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="20"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="20"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="20"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="20"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="20"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="20"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="20"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="20"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="20"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="20"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="20"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="20"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="20"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="20"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="20"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="20"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="20"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="20"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="20"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="20"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="20"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="20"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="20"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="20"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="20"/>
+      <c r="B153" s="20"/>
+      <c r="C153" s="20"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="20"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="20"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="20"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="20"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="20"/>
+      <c r="B156" s="20"/>
+      <c r="C156" s="20"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="20"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="20"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="20"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="20"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="20"/>
+      <c r="B159" s="20"/>
+      <c r="C159" s="20"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="20"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="20"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="20"/>
+      <c r="B161" s="20"/>
+      <c r="C161" s="20"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="20"/>
+      <c r="B162" s="20"/>
+      <c r="C162" s="20"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="20"/>
+      <c r="B163" s="20"/>
+      <c r="C163" s="20"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="20"/>
+      <c r="B164" s="20"/>
+      <c r="C164" s="20"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="20"/>
+      <c r="B165" s="20"/>
+      <c r="C165" s="20"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="20"/>
+      <c r="B166" s="20"/>
+      <c r="C166" s="20"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="20"/>
+      <c r="B167" s="20"/>
+      <c r="C167" s="20"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="20"/>
+      <c r="B168" s="20"/>
+      <c r="C168" s="20"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="20"/>
+      <c r="B169" s="20"/>
+      <c r="C169" s="20"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="20"/>
+      <c r="B170" s="20"/>
+      <c r="C170" s="20"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="20"/>
+      <c r="B171" s="20"/>
+      <c r="C171" s="20"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="20"/>
+      <c r="B172" s="20"/>
+      <c r="C172" s="20"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="20"/>
+      <c r="B173" s="20"/>
+      <c r="C173" s="20"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="20"/>
+      <c r="B174" s="20"/>
+      <c r="C174" s="20"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="20"/>
+      <c r="B175" s="20"/>
+      <c r="C175" s="20"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="20"/>
+      <c r="B176" s="20"/>
+      <c r="C176" s="20"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="20"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="20"/>
+      <c r="B178" s="20"/>
+      <c r="C178" s="20"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="20"/>
+      <c r="B179" s="20"/>
+      <c r="C179" s="20"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="20"/>
+      <c r="B180" s="20"/>
+      <c r="C180" s="20"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="20"/>
+      <c r="B181" s="20"/>
+      <c r="C181" s="20"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="20"/>
+      <c r="B182" s="20"/>
+      <c r="C182" s="20"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="20"/>
+      <c r="B183" s="20"/>
+      <c r="C183" s="20"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="20"/>
+      <c r="B184" s="20"/>
+      <c r="C184" s="20"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="20"/>
+      <c r="B185" s="20"/>
+      <c r="C185" s="20"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="20"/>
+      <c r="B186" s="20"/>
+      <c r="C186" s="20"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="20"/>
+      <c r="B187" s="20"/>
+      <c r="C187" s="20"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="20"/>
+      <c r="B188" s="20"/>
+      <c r="C188" s="20"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="20"/>
+      <c r="B189" s="20"/>
+      <c r="C189" s="20"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="20"/>
+      <c r="B190" s="20"/>
+      <c r="C190" s="20"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="20"/>
+      <c r="B191" s="20"/>
+      <c r="C191" s="20"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="20"/>
+      <c r="B192" s="20"/>
+      <c r="C192" s="20"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="20"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="20"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="20"/>
+      <c r="B194" s="20"/>
+      <c r="C194" s="20"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="20"/>
+      <c r="B195" s="20"/>
+      <c r="C195" s="20"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="20"/>
+      <c r="B196" s="20"/>
+      <c r="C196" s="20"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="20"/>
+      <c r="B197" s="20"/>
+      <c r="C197" s="20"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="20"/>
+      <c r="B198" s="20"/>
+      <c r="C198" s="20"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="20"/>
+      <c r="B199" s="20"/>
+      <c r="C199" s="20"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="20"/>
+      <c r="B200" s="20"/>
+      <c r="C200" s="20"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="20"/>
+      <c r="B201" s="20"/>
+      <c r="C201" s="20"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="20"/>
+      <c r="B202" s="20"/>
+      <c r="C202" s="20"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="20"/>
+      <c r="B203" s="20"/>
+      <c r="C203" s="20"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="20"/>
+      <c r="B204" s="20"/>
+      <c r="C204" s="20"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="20"/>
+      <c r="B205" s="20"/>
+      <c r="C205" s="20"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="20"/>
+      <c r="B206" s="20"/>
+      <c r="C206" s="20"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="20"/>
+      <c r="B207" s="20"/>
+      <c r="C207" s="20"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="20"/>
+      <c r="B208" s="20"/>
+      <c r="C208" s="20"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="20"/>
+      <c r="B209" s="20"/>
+      <c r="C209" s="20"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="20"/>
+      <c r="B210" s="20"/>
+      <c r="C210" s="20"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="20"/>
+      <c r="B211" s="20"/>
+      <c r="C211" s="20"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="20"/>
+      <c r="B212" s="20"/>
+      <c r="C212" s="20"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="20"/>
+      <c r="B213" s="20"/>
+      <c r="C213" s="20"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="20"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="20"/>
+      <c r="B215" s="20"/>
+      <c r="C215" s="20"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="20"/>
+      <c r="B216" s="20"/>
+      <c r="C216" s="20"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="20"/>
+      <c r="B217" s="20"/>
+      <c r="C217" s="20"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="20"/>
+      <c r="B218" s="20"/>
+      <c r="C218" s="20"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="20"/>
+      <c r="B219" s="20"/>
+      <c r="C219" s="20"/>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="20"/>
+      <c r="B220" s="20"/>
+      <c r="C220" s="20"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="20"/>
+      <c r="B221" s="20"/>
+      <c r="C221" s="20"/>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="20"/>
+      <c r="B222" s="20"/>
+      <c r="C222" s="20"/>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="20"/>
+      <c r="B223" s="20"/>
+      <c r="C223" s="20"/>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="20"/>
+      <c r="B224" s="20"/>
+      <c r="C224" s="20"/>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="20"/>
+      <c r="B225" s="20"/>
+      <c r="C225" s="20"/>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="20"/>
+      <c r="B226" s="20"/>
+      <c r="C226" s="20"/>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="20"/>
+      <c r="B227" s="20"/>
+      <c r="C227" s="20"/>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="20"/>
+      <c r="B228" s="20"/>
+      <c r="C228" s="20"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="20"/>
+      <c r="B229" s="20"/>
+      <c r="C229" s="20"/>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="20"/>
+      <c r="B230" s="20"/>
+      <c r="C230" s="20"/>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="20"/>
+      <c r="B231" s="20"/>
+      <c r="C231" s="20"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="20"/>
+      <c r="B232" s="20"/>
+      <c r="C232" s="20"/>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="20"/>
+      <c r="B233" s="20"/>
+      <c r="C233" s="20"/>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="20"/>
+      <c r="B234" s="20"/>
+      <c r="C234" s="20"/>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="20"/>
+      <c r="B235" s="20"/>
+      <c r="C235" s="20"/>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="20"/>
+      <c r="B236" s="20"/>
+      <c r="C236" s="20"/>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="20"/>
+      <c r="B237" s="20"/>
+      <c r="C237" s="20"/>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="20"/>
+      <c r="B238" s="20"/>
+      <c r="C238" s="20"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="20"/>
+      <c r="B239" s="20"/>
+      <c r="C239" s="20"/>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="20"/>
+      <c r="B240" s="20"/>
+      <c r="C240" s="20"/>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="20"/>
+      <c r="B241" s="20"/>
+      <c r="C241" s="20"/>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="20"/>
+      <c r="B242" s="20"/>
+      <c r="C242" s="20"/>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="20"/>
+      <c r="B243" s="20"/>
+      <c r="C243" s="20"/>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="20"/>
+      <c r="B244" s="20"/>
+      <c r="C244" s="20"/>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="20"/>
+      <c r="B245" s="20"/>
+      <c r="C245" s="20"/>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="20"/>
+      <c r="B246" s="20"/>
+      <c r="C246" s="20"/>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="20"/>
+      <c r="B247" s="20"/>
+      <c r="C247" s="20"/>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="20"/>
+      <c r="B248" s="20"/>
+      <c r="C248" s="20"/>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="20"/>
+      <c r="B249" s="20"/>
+      <c r="C249" s="20"/>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="20"/>
+      <c r="B250" s="20"/>
+      <c r="C250" s="20"/>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="20"/>
+      <c r="B251" s="20"/>
+      <c r="C251" s="20"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="20"/>
+      <c r="B252" s="20"/>
+      <c r="C252" s="20"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="20"/>
+      <c r="B253" s="20"/>
+      <c r="C253" s="20"/>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="20"/>
+      <c r="B254" s="20"/>
+      <c r="C254" s="20"/>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="20"/>
+      <c r="B255" s="20"/>
+      <c r="C255" s="20"/>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="20"/>
+      <c r="B256" s="20"/>
+      <c r="C256" s="20"/>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="20"/>
+      <c r="B257" s="20"/>
+      <c r="C257" s="20"/>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="20"/>
+      <c r="B258" s="20"/>
+      <c r="C258" s="20"/>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="20"/>
+      <c r="B259" s="20"/>
+      <c r="C259" s="20"/>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="20"/>
+      <c r="B260" s="20"/>
+      <c r="C260" s="20"/>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="20"/>
+      <c r="B261" s="20"/>
+      <c r="C261" s="20"/>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="20"/>
+      <c r="B262" s="20"/>
+      <c r="C262" s="20"/>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="20"/>
+      <c r="B263" s="20"/>
+      <c r="C263" s="20"/>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="20"/>
+      <c r="B264" s="20"/>
+      <c r="C264" s="20"/>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="20"/>
+      <c r="B265" s="20"/>
+      <c r="C265" s="20"/>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="20"/>
+      <c r="B266" s="20"/>
+      <c r="C266" s="20"/>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="20"/>
+      <c r="B267" s="20"/>
+      <c r="C267" s="20"/>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="20"/>
+      <c r="B268" s="20"/>
+      <c r="C268" s="20"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="20"/>
+      <c r="B269" s="20"/>
+      <c r="C269" s="20"/>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="20"/>
+      <c r="B270" s="20"/>
+      <c r="C270" s="20"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="20"/>
+      <c r="B271" s="20"/>
+      <c r="C271" s="20"/>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="20"/>
+      <c r="B272" s="20"/>
+      <c r="C272" s="20"/>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="20"/>
+      <c r="B273" s="20"/>
+      <c r="C273" s="20"/>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="20"/>
+      <c r="B274" s="20"/>
+      <c r="C274" s="20"/>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="20"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="20"/>
+      <c r="B276" s="20"/>
+      <c r="C276" s="20"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="20"/>
+      <c r="B277" s="20"/>
+      <c r="C277" s="20"/>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="20"/>
+      <c r="B278" s="20"/>
+      <c r="C278" s="20"/>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="20"/>
+      <c r="B279" s="20"/>
+      <c r="C279" s="20"/>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="20"/>
+      <c r="B280" s="20"/>
+      <c r="C280" s="20"/>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="20"/>
+      <c r="B281" s="20"/>
+      <c r="C281" s="20"/>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="20"/>
+      <c r="B282" s="20"/>
+      <c r="C282" s="20"/>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="20"/>
+      <c r="B283" s="20"/>
+      <c r="C283" s="20"/>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="20"/>
+      <c r="B284" s="20"/>
+      <c r="C284" s="20"/>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="20"/>
+      <c r="B285" s="20"/>
+      <c r="C285" s="20"/>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="20"/>
+      <c r="B286" s="20"/>
+      <c r="C286" s="20"/>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="20"/>
+      <c r="B287" s="20"/>
+      <c r="C287" s="20"/>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="20"/>
+      <c r="B288" s="20"/>
+      <c r="C288" s="20"/>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="20"/>
+      <c r="B289" s="20"/>
+      <c r="C289" s="20"/>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="20"/>
+      <c r="B290" s="20"/>
+      <c r="C290" s="20"/>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="20"/>
+      <c r="B291" s="20"/>
+      <c r="C291" s="20"/>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="20"/>
+      <c r="B292" s="20"/>
+      <c r="C292" s="20"/>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="20"/>
+      <c r="B293" s="20"/>
+      <c r="C293" s="20"/>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="20"/>
+      <c r="B294" s="20"/>
+      <c r="C294" s="20"/>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="20"/>
+      <c r="B295" s="20"/>
+      <c r="C295" s="20"/>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="20"/>
+      <c r="B296" s="20"/>
+      <c r="C296" s="20"/>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="20"/>
+      <c r="B297" s="20"/>
+      <c r="C297" s="20"/>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="20"/>
+      <c r="B298" s="20"/>
+      <c r="C298" s="20"/>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="20"/>
+      <c r="B299" s="20"/>
+      <c r="C299" s="20"/>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="20"/>
+      <c r="B300" s="20"/>
+      <c r="C300" s="20"/>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="20"/>
+      <c r="B301" s="20"/>
+      <c r="C301" s="20"/>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="20"/>
+      <c r="B302" s="20"/>
+      <c r="C302" s="20"/>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="20"/>
+      <c r="B303" s="20"/>
+      <c r="C303" s="20"/>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="20"/>
+      <c r="B304" s="20"/>
+      <c r="C304" s="20"/>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="20"/>
+      <c r="B305" s="20"/>
+      <c r="C305" s="20"/>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="20"/>
+      <c r="B306" s="20"/>
+      <c r="C306" s="20"/>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="20"/>
+      <c r="B307" s="20"/>
+      <c r="C307" s="20"/>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="20"/>
+      <c r="B308" s="20"/>
+      <c r="C308" s="20"/>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="20"/>
+      <c r="B309" s="20"/>
+      <c r="C309" s="20"/>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="20"/>
+      <c r="B310" s="20"/>
+      <c r="C310" s="20"/>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="20"/>
+      <c r="B311" s="20"/>
+      <c r="C311" s="20"/>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="20"/>
+      <c r="B312" s="20"/>
+      <c r="C312" s="20"/>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="20"/>
+      <c r="B313" s="20"/>
+      <c r="C313" s="20"/>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="20"/>
+      <c r="B314" s="20"/>
+      <c r="C314" s="20"/>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="20"/>
+      <c r="B315" s="20"/>
+      <c r="C315" s="20"/>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="20"/>
+      <c r="B316" s="20"/>
+      <c r="C316" s="20"/>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="20"/>
+      <c r="B317" s="20"/>
+      <c r="C317" s="20"/>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="20"/>
+      <c r="B318" s="20"/>
+      <c r="C318" s="20"/>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="20"/>
+      <c r="B319" s="20"/>
+      <c r="C319" s="20"/>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="20"/>
+      <c r="B320" s="20"/>
+      <c r="C320" s="20"/>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="20"/>
+      <c r="B321" s="20"/>
+      <c r="C321" s="20"/>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="20"/>
+      <c r="B322" s="20"/>
+      <c r="C322" s="20"/>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="20"/>
+      <c r="B323" s="20"/>
+      <c r="C323" s="20"/>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="20"/>
+      <c r="B324" s="20"/>
+      <c r="C324" s="20"/>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="20"/>
+      <c r="B325" s="20"/>
+      <c r="C325" s="20"/>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="20"/>
+      <c r="B326" s="20"/>
+      <c r="C326" s="20"/>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="20"/>
+      <c r="B327" s="20"/>
+      <c r="C327" s="20"/>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="20"/>
+      <c r="B328" s="20"/>
+      <c r="C328" s="20"/>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="20"/>
+      <c r="B329" s="20"/>
+      <c r="C329" s="20"/>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="20"/>
+      <c r="B330" s="20"/>
+      <c r="C330" s="20"/>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="20"/>
+      <c r="B331" s="20"/>
+      <c r="C331" s="20"/>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="20"/>
+      <c r="B332" s="20"/>
+      <c r="C332" s="20"/>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="20"/>
+      <c r="B333" s="20"/>
+      <c r="C333" s="20"/>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="20"/>
+      <c r="B334" s="20"/>
+      <c r="C334" s="20"/>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="20"/>
+      <c r="B335" s="20"/>
+      <c r="C335" s="20"/>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="20"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="20"/>
+      <c r="B337" s="20"/>
+      <c r="C337" s="20"/>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="20"/>
+      <c r="B338" s="20"/>
+      <c r="C338" s="20"/>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="20"/>
+      <c r="B339" s="20"/>
+      <c r="C339" s="20"/>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="20"/>
+      <c r="B340" s="20"/>
+      <c r="C340" s="20"/>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="20"/>
+      <c r="B341" s="20"/>
+      <c r="C341" s="20"/>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="20"/>
+      <c r="B342" s="20"/>
+      <c r="C342" s="20"/>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="20"/>
+      <c r="B343" s="20"/>
+      <c r="C343" s="20"/>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="20"/>
+      <c r="B344" s="20"/>
+      <c r="C344" s="20"/>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="20"/>
+      <c r="B345" s="20"/>
+      <c r="C345" s="20"/>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="20"/>
+      <c r="B346" s="20"/>
+      <c r="C346" s="20"/>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="20"/>
+      <c r="B347" s="20"/>
+      <c r="C347" s="20"/>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="20"/>
+      <c r="B348" s="20"/>
+      <c r="C348" s="20"/>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="20"/>
+      <c r="B349" s="20"/>
+      <c r="C349" s="20"/>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="20"/>
+      <c r="B350" s="20"/>
+      <c r="C350" s="20"/>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="20"/>
+      <c r="B351" s="20"/>
+      <c r="C351" s="20"/>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="20"/>
+      <c r="B352" s="20"/>
+      <c r="C352" s="20"/>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="20"/>
+      <c r="B353" s="20"/>
+      <c r="C353" s="20"/>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="20"/>
+      <c r="B354" s="20"/>
+      <c r="C354" s="20"/>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="20"/>
+      <c r="B355" s="20"/>
+      <c r="C355" s="20"/>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="20"/>
+      <c r="B356" s="20"/>
+      <c r="C356" s="20"/>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="20"/>
+      <c r="B357" s="20"/>
+      <c r="C357" s="20"/>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="20"/>
+      <c r="B358" s="20"/>
+      <c r="C358" s="20"/>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="20"/>
+      <c r="B359" s="20"/>
+      <c r="C359" s="20"/>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="20"/>
+      <c r="B360" s="20"/>
+      <c r="C360" s="20"/>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="20"/>
+      <c r="B361" s="20"/>
+      <c r="C361" s="20"/>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="20"/>
+      <c r="B362" s="20"/>
+      <c r="C362" s="20"/>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="20"/>
+      <c r="B363" s="20"/>
+      <c r="C363" s="20"/>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="20"/>
+      <c r="B364" s="20"/>
+      <c r="C364" s="20"/>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="20"/>
+      <c r="B365" s="20"/>
+      <c r="C365" s="20"/>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="20"/>
+      <c r="B366" s="20"/>
+      <c r="C366" s="20"/>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="20"/>
+      <c r="B367" s="20"/>
+      <c r="C367" s="20"/>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="20"/>
+      <c r="B368" s="20"/>
+      <c r="C368" s="20"/>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="20"/>
+      <c r="B369" s="20"/>
+      <c r="C369" s="20"/>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="20"/>
+      <c r="B370" s="20"/>
+      <c r="C370" s="20"/>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="20"/>
+      <c r="B371" s="20"/>
+      <c r="C371" s="20"/>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="20"/>
+      <c r="B372" s="20"/>
+      <c r="C372" s="20"/>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="20"/>
+      <c r="B373" s="20"/>
+      <c r="C373" s="20"/>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="20"/>
+      <c r="B374" s="20"/>
+      <c r="C374" s="20"/>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="20"/>
+      <c r="B375" s="20"/>
+      <c r="C375" s="20"/>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="20"/>
+      <c r="B376" s="20"/>
+      <c r="C376" s="20"/>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="20"/>
+      <c r="B377" s="20"/>
+      <c r="C377" s="20"/>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="20"/>
+      <c r="B378" s="20"/>
+      <c r="C378" s="20"/>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="20"/>
+      <c r="B379" s="20"/>
+      <c r="C379" s="20"/>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="20"/>
+      <c r="B380" s="20"/>
+      <c r="C380" s="20"/>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="20"/>
+      <c r="B381" s="20"/>
+      <c r="C381" s="20"/>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="20"/>
+      <c r="B382" s="20"/>
+      <c r="C382" s="20"/>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="20"/>
+      <c r="B383" s="20"/>
+      <c r="C383" s="20"/>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="20"/>
+      <c r="B384" s="20"/>
+      <c r="C384" s="20"/>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="20"/>
+      <c r="B385" s="20"/>
+      <c r="C385" s="20"/>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="20"/>
+      <c r="B386" s="20"/>
+      <c r="C386" s="20"/>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="20"/>
+      <c r="B387" s="20"/>
+      <c r="C387" s="20"/>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="20"/>
+      <c r="B388" s="20"/>
+      <c r="C388" s="20"/>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="20"/>
+      <c r="B389" s="20"/>
+      <c r="C389" s="20"/>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="20"/>
+      <c r="B390" s="20"/>
+      <c r="C390" s="20"/>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="20"/>
+      <c r="B391" s="20"/>
+      <c r="C391" s="20"/>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="20"/>
+      <c r="B392" s="20"/>
+      <c r="C392" s="20"/>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="20"/>
+      <c r="B393" s="20"/>
+      <c r="C393" s="20"/>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="20"/>
+      <c r="B394" s="20"/>
+      <c r="C394" s="20"/>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="20"/>
+      <c r="B395" s="20"/>
+      <c r="C395" s="20"/>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="20"/>
+      <c r="B396" s="20"/>
+      <c r="C396" s="20"/>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="20"/>
+      <c r="B397" s="20"/>
+      <c r="C397" s="20"/>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="20"/>
+      <c r="B398" s="20"/>
+      <c r="C398" s="20"/>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="20"/>
+      <c r="B399" s="20"/>
+      <c r="C399" s="20"/>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="20"/>
+      <c r="B400" s="20"/>
+      <c r="C400" s="20"/>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="20"/>
+      <c r="B401" s="20"/>
+      <c r="C401" s="20"/>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="20"/>
+      <c r="B402" s="20"/>
+      <c r="C402" s="20"/>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="20"/>
+      <c r="B403" s="20"/>
+      <c r="C403" s="20"/>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="20"/>
+      <c r="B404" s="20"/>
+      <c r="C404" s="20"/>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="20"/>
+      <c r="B405" s="20"/>
+      <c r="C405" s="20"/>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="20"/>
+      <c r="B406" s="20"/>
+      <c r="C406" s="20"/>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="20"/>
+      <c r="B407" s="20"/>
+      <c r="C407" s="20"/>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="20"/>
+      <c r="B408" s="20"/>
+      <c r="C408" s="20"/>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="20"/>
+      <c r="B409" s="20"/>
+      <c r="C409" s="20"/>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="20"/>
+      <c r="B410" s="20"/>
+      <c r="C410" s="20"/>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="20"/>
+      <c r="B411" s="20"/>
+      <c r="C411" s="20"/>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="20"/>
+      <c r="B412" s="20"/>
+      <c r="C412" s="20"/>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="20"/>
+      <c r="B413" s="20"/>
+      <c r="C413" s="20"/>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="20"/>
+      <c r="B414" s="20"/>
+      <c r="C414" s="20"/>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="20"/>
+      <c r="B415" s="20"/>
+      <c r="C415" s="20"/>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="20"/>
+      <c r="B416" s="20"/>
+      <c r="C416" s="20"/>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="20"/>
+      <c r="B417" s="20"/>
+      <c r="C417" s="20"/>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="20"/>
+      <c r="B418" s="20"/>
+      <c r="C418" s="20"/>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="20"/>
+      <c r="B419" s="20"/>
+      <c r="C419" s="20"/>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="20"/>
+      <c r="B420" s="20"/>
+      <c r="C420" s="20"/>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="20"/>
+      <c r="B421" s="20"/>
+      <c r="C421" s="20"/>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="20"/>
+      <c r="B422" s="20"/>
+      <c r="C422" s="20"/>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="20"/>
+      <c r="B423" s="20"/>
+      <c r="C423" s="20"/>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="20"/>
+      <c r="B424" s="20"/>
+      <c r="C424" s="20"/>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="20"/>
+      <c r="B425" s="20"/>
+      <c r="C425" s="20"/>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="20"/>
+      <c r="B426" s="20"/>
+      <c r="C426" s="20"/>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="20"/>
+      <c r="B427" s="20"/>
+      <c r="C427" s="20"/>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="20"/>
+      <c r="B428" s="20"/>
+      <c r="C428" s="20"/>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="20"/>
+      <c r="B429" s="20"/>
+      <c r="C429" s="20"/>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="20"/>
+      <c r="B430" s="20"/>
+      <c r="C430" s="20"/>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="20"/>
+      <c r="B431" s="20"/>
+      <c r="C431" s="20"/>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="20"/>
+      <c r="B432" s="20"/>
+      <c r="C432" s="20"/>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="20"/>
+      <c r="B433" s="20"/>
+      <c r="C433" s="20"/>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="20"/>
+      <c r="B434" s="20"/>
+      <c r="C434" s="20"/>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="20"/>
+      <c r="B435" s="20"/>
+      <c r="C435" s="20"/>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="20"/>
+      <c r="B436" s="20"/>
+      <c r="C436" s="20"/>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="20"/>
+      <c r="B437" s="20"/>
+      <c r="C437" s="20"/>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="20"/>
+      <c r="B438" s="20"/>
+      <c r="C438" s="20"/>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="20"/>
+      <c r="B439" s="20"/>
+      <c r="C439" s="20"/>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="20"/>
+      <c r="B440" s="20"/>
+      <c r="C440" s="20"/>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="20"/>
+      <c r="B441" s="20"/>
+      <c r="C441" s="20"/>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="20"/>
+      <c r="B442" s="20"/>
+      <c r="C442" s="20"/>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="20"/>
+      <c r="B443" s="20"/>
+      <c r="C443" s="20"/>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="20"/>
+      <c r="B444" s="20"/>
+      <c r="C444" s="20"/>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="20"/>
+      <c r="B445" s="20"/>
+      <c r="C445" s="20"/>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="20"/>
+      <c r="B446" s="20"/>
+      <c r="C446" s="20"/>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="20"/>
+      <c r="B447" s="20"/>
+      <c r="C447" s="20"/>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="20"/>
+      <c r="B448" s="20"/>
+      <c r="C448" s="20"/>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="20"/>
+      <c r="B449" s="20"/>
+      <c r="C449" s="20"/>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="20"/>
+      <c r="B450" s="20"/>
+      <c r="C450" s="20"/>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="20"/>
+      <c r="B451" s="20"/>
+      <c r="C451" s="20"/>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="20"/>
+      <c r="B452" s="20"/>
+      <c r="C452" s="20"/>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="20"/>
+      <c r="B453" s="20"/>
+      <c r="C453" s="20"/>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="20"/>
+      <c r="B454" s="20"/>
+      <c r="C454" s="20"/>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="20"/>
+      <c r="B455" s="20"/>
+      <c r="C455" s="20"/>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="20"/>
+      <c r="B456" s="20"/>
+      <c r="C456" s="20"/>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="20"/>
+      <c r="B457" s="20"/>
+      <c r="C457" s="20"/>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="20"/>
+      <c r="B458" s="20"/>
+      <c r="C458" s="20"/>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="20"/>
+      <c r="B459" s="20"/>
+      <c r="C459" s="20"/>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="20"/>
+      <c r="B460" s="20"/>
+      <c r="C460" s="20"/>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="20"/>
+      <c r="B461" s="20"/>
+      <c r="C461" s="20"/>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="20"/>
+      <c r="B462" s="20"/>
+      <c r="C462" s="20"/>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="20"/>
+      <c r="B463" s="20"/>
+      <c r="C463" s="20"/>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="20"/>
+      <c r="B464" s="20"/>
+      <c r="C464" s="20"/>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="20"/>
+      <c r="B465" s="20"/>
+      <c r="C465" s="20"/>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="20"/>
+      <c r="B466" s="20"/>
+      <c r="C466" s="20"/>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="20"/>
+      <c r="B467" s="20"/>
+      <c r="C467" s="20"/>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="20"/>
+      <c r="B468" s="20"/>
+      <c r="C468" s="20"/>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="20"/>
+      <c r="B469" s="20"/>
+      <c r="C469" s="20"/>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="20"/>
+      <c r="B470" s="20"/>
+      <c r="C470" s="20"/>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="20"/>
+      <c r="B471" s="20"/>
+      <c r="C471" s="20"/>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="20"/>
+      <c r="B472" s="20"/>
+      <c r="C472" s="20"/>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="20"/>
+      <c r="B473" s="20"/>
+      <c r="C473" s="20"/>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="20"/>
+      <c r="B474" s="20"/>
+      <c r="C474" s="20"/>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="20"/>
+      <c r="B475" s="20"/>
+      <c r="C475" s="20"/>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="20"/>
+      <c r="B476" s="20"/>
+      <c r="C476" s="20"/>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="20"/>
+      <c r="B477" s="20"/>
+      <c r="C477" s="20"/>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="20"/>
+      <c r="B478" s="20"/>
+      <c r="C478" s="20"/>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="20"/>
+      <c r="B479" s="20"/>
+      <c r="C479" s="20"/>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="20"/>
+      <c r="B480" s="20"/>
+      <c r="C480" s="20"/>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="20"/>
+      <c r="B481" s="20"/>
+      <c r="C481" s="20"/>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="20"/>
+      <c r="B482" s="20"/>
+      <c r="C482" s="20"/>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="20"/>
+      <c r="B483" s="20"/>
+      <c r="C483" s="20"/>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="20"/>
+      <c r="B484" s="20"/>
+      <c r="C484" s="20"/>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="20"/>
+      <c r="B485" s="20"/>
+      <c r="C485" s="20"/>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="20"/>
+      <c r="B486" s="20"/>
+      <c r="C486" s="20"/>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="20"/>
+      <c r="B487" s="20"/>
+      <c r="C487" s="20"/>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="20"/>
+      <c r="B488" s="20"/>
+      <c r="C488" s="20"/>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="20"/>
+      <c r="B489" s="20"/>
+      <c r="C489" s="20"/>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="20"/>
+      <c r="B490" s="20"/>
+      <c r="C490" s="20"/>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="20"/>
+      <c r="B491" s="20"/>
+      <c r="C491" s="20"/>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="20"/>
+      <c r="B492" s="20"/>
+      <c r="C492" s="20"/>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="20"/>
+      <c r="B493" s="20"/>
+      <c r="C493" s="20"/>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="20"/>
+      <c r="B494" s="20"/>
+      <c r="C494" s="20"/>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="20"/>
+      <c r="B495" s="20"/>
+      <c r="C495" s="20"/>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="20"/>
+      <c r="B496" s="20"/>
+      <c r="C496" s="20"/>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="20"/>
+      <c r="B497" s="20"/>
+      <c r="C497" s="20"/>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="20"/>
+      <c r="B498" s="20"/>
+      <c r="C498" s="20"/>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="20"/>
+      <c r="B499" s="20"/>
+      <c r="C499" s="20"/>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="20"/>
+      <c r="B500" s="20"/>
+      <c r="C500" s="20"/>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="20"/>
+      <c r="B501" s="20"/>
+      <c r="C501" s="20"/>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="20"/>
+      <c r="B502" s="20"/>
+      <c r="C502" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="99">
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="A46:K47"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I64:K64"/>
+    <mergeCell ref="I69:K69"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="A56:K57"/>
+    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="I62:K62"/>
+  </mergeCells>
+  <pageMargins left="0.64950980392156865" right="0.7" top="0.83333333333333337" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;LPKKK/HMS/001A&amp;C&amp;"-,Bold"UNIT ANALISIS TRADISIONAL      
+BORANG UJIAN PENGECAIAN      &amp;R1 April 2024</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD15D81E-5A49-43DA-835E-64E6F783885D}">
   <dimension ref="A2:H36"/>
   <sheetViews>
@@ -11060,40 +15394,40 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="220" t="s">
+      <c r="A8" s="232" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="220" t="s">
+      <c r="B8" s="232" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="220" t="s">
+      <c r="C8" s="232" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="223" t="s">
+      <c r="D8" s="235" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="223" t="s">
+      <c r="E8" s="235" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="221" t="s">
+      <c r="F8" s="233" t="s">
         <v>103</v>
       </c>
-      <c r="G8" s="223" t="s">
+      <c r="G8" s="235" t="s">
         <v>100</v>
       </c>
-      <c r="H8" s="220" t="s">
+      <c r="H8" s="232" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="220"/>
-      <c r="B9" s="220"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="223"/>
-      <c r="E9" s="223"/>
-      <c r="F9" s="222"/>
-      <c r="G9" s="223"/>
-      <c r="H9" s="220"/>
+      <c r="A9" s="232"/>
+      <c r="B9" s="232"/>
+      <c r="C9" s="232"/>
+      <c r="D9" s="235"/>
+      <c r="E9" s="235"/>
+      <c r="F9" s="234"/>
+      <c r="G9" s="235"/>
+      <c r="H9" s="232"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="92"/>
